--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A68BE-B953-974A-9DB8-2FD4FC12B7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E3DA7-16B2-9D46-9349-31B97BB54AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17080" yWindow="-28340" windowWidth="34120" windowHeight="28340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,11 +57,12 @@
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="757">
   <si>
     <t>target</t>
   </si>
@@ -2307,29 +2308,59 @@
     <t>v5-epoch</t>
   </si>
   <si>
-    <t>$(date|format|${v4}|MM/dd/yyyy HH:mm:ss.S|epoch)</t>
-  </si>
-  <si>
-    <t>$(date|format|${v5}|MM/dd/yyyy HH:mm:ss.S|epoch)</t>
-  </si>
-  <si>
-    <t>[NUMBER(${v4-epoch}) =&gt; minus(${v5-epoch}) abs]</t>
-  </si>
-  <si>
     <t>convert to timestamp</t>
   </si>
   <si>
-    <t>do the math</t>
-  </si>
-  <si>
     <t>[NUMBER(${v5-epoch}) =&gt; minus(${v4-epoch})]</t>
+  </si>
+  <si>
+    <t>MM/dd/yyyy HH:mm:ss.S</t>
+  </si>
+  <si>
+    <t>[NUMBER([DATE(${v4},${dateformat}) =&gt; format(epoch)]) =&gt; minus([DATE(${v5},${dateformat}) =&gt; format(epoch)]) abs]</t>
+  </si>
+  <si>
+    <t>dateformat</t>
+  </si>
+  <si>
+    <t>do the math, take 1</t>
+  </si>
+  <si>
+    <t>$(date|format|${v4}|${dateformat}|epoch)</t>
+  </si>
+  <si>
+    <r>
+      <t>$(date|format|${v5}|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>${dateformat}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|epoch)</t>
+    </r>
+  </si>
+  <si>
+    <t>do it again, take 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2405,6 +2436,25 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2469,7 +2519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2625,6 +2675,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5018,11 +5076,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O321"/>
+  <dimension ref="A1:O320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6473,9 +6531,7 @@
     </row>
     <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
-      <c r="B55" s="21" t="s">
-        <v>751</v>
-      </c>
+      <c r="B55" s="21"/>
       <c r="C55" s="22" t="s">
         <v>5</v>
       </c>
@@ -6483,10 +6539,10 @@
         <v>319</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G55" s="36"/>
       <c r="H55" s="23"/>
@@ -6500,7 +6556,9 @@
     </row>
     <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
-      <c r="B56" s="21"/>
+      <c r="B56" s="21" t="s">
+        <v>748</v>
+      </c>
       <c r="C56" s="22" t="s">
         <v>5</v>
       </c>
@@ -6508,12 +6566,12 @@
         <v>319</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>749</v>
-      </c>
-      <c r="G56" s="23"/>
+        <v>754</v>
+      </c>
+      <c r="G56" s="36"/>
       <c r="H56" s="23"/>
       <c r="I56" s="30"/>
       <c r="J56" s="35"/>
@@ -6525,20 +6583,18 @@
     </row>
     <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
-      <c r="B57" s="21" t="s">
-        <v>752</v>
-      </c>
+      <c r="B57" s="21"/>
       <c r="C57" s="22" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>745</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>753</v>
+        <v>747</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>755</v>
       </c>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
@@ -6552,23 +6608,23 @@
     </row>
     <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
-      <c r="B58" s="15" t="s">
-        <v>752</v>
-      </c>
-      <c r="C58" s="29" t="s">
+      <c r="B58" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="F58" s="30" t="s">
-        <v>750</v>
-      </c>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="F58" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="30"/>
       <c r="J58" s="35"/>
       <c r="K58" s="17"/>
@@ -6579,11 +6635,21 @@
     </row>
     <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
+      <c r="B59" s="47" t="s">
+        <v>756</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>751</v>
+      </c>
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
@@ -11031,23 +11097,6 @@
       <c r="N320" s="18"/>
       <c r="O320" s="17"/>
     </row>
-    <row r="321" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="14"/>
-      <c r="B321" s="15"/>
-      <c r="C321" s="29"/>
-      <c r="D321" s="30"/>
-      <c r="E321" s="30"/>
-      <c r="F321" s="30"/>
-      <c r="G321" s="30"/>
-      <c r="H321" s="30"/>
-      <c r="I321" s="30"/>
-      <c r="J321" s="35"/>
-      <c r="K321" s="17"/>
-      <c r="L321" s="18"/>
-      <c r="M321" s="16"/>
-      <c r="N321" s="18"/>
-      <c r="O321" s="17"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -11056,18 +11105,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N122:N321">
+  <conditionalFormatting sqref="N3:N320">
     <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
-      <formula>LEFT(N122,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
-      <formula>LEFT(N122,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
-      <formula>LEFT(N122,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N121 N322:N1048576">
+  <conditionalFormatting sqref="N1 N321:N1048576">
     <cfRule type="beginsWith" dxfId="8" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -11078,11 +11127,11 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C321" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C320" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D321" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D320" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E3DA7-16B2-9D46-9349-31B97BB54AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9C3E3DA7-16B2-9D46-9349-31B97BB54AF2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="-28340" windowWidth="34120" windowHeight="28340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="28340" windowWidth="34120" xWindow="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-28340" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="date" sheetId="5" r:id="rId2"/>
-    <sheet name="format" sheetId="2" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="date" r:id="rId2" sheetId="5"/>
+    <sheet name="format" r:id="rId3" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -27,7 +27,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -40,7 +40,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -49,9 +49,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="768">
   <si>
     <t>target</t>
   </si>
@@ -2355,12 +2355,46 @@
   <si>
     <t>do it again, take 2</t>
   </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2455,8 +2489,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2475,8 +2610,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2514,180 +2802,554 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="64">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2811,7 +3473,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2836,10 +3498,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3003,21 +3665,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3034,7 +3696,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3088,19 +3750,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3290,7 +3952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3376,7 +4038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3459,7 +4121,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3521,7 +4183,7 @@
         <v>131</v>
       </c>
       <c r="AB5" t="s">
-        <v>132</v>
+        <v>766</v>
       </c>
       <c r="AC5" t="s">
         <v>133</v>
@@ -3533,7 +4195,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3592,7 +4254,7 @@
         <v>153</v>
       </c>
       <c r="AB6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="AC6" t="s">
         <v>155</v>
@@ -3604,7 +4266,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3654,7 +4316,7 @@
         <v>170</v>
       </c>
       <c r="AB7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="AC7" t="s">
         <v>172</v>
@@ -3666,7 +4328,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +4372,7 @@
         <v>187</v>
       </c>
       <c r="AB8" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
         <v>189</v>
@@ -3722,7 +4384,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3762,6 +4424,9 @@
       <c r="Z9" t="s">
         <v>203</v>
       </c>
+      <c r="AB9" t="s">
+        <v>188</v>
+      </c>
       <c r="AC9" t="s">
         <v>204</v>
       </c>
@@ -3769,7 +4434,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3780,7 +4445,7 @@
         <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>757</v>
       </c>
       <c r="L10" t="s">
         <v>208</v>
@@ -3803,6 +4468,9 @@
       <c r="Z10" t="s">
         <v>214</v>
       </c>
+      <c r="AB10" t="s">
+        <v>767</v>
+      </c>
       <c r="AC10" t="s">
         <v>215</v>
       </c>
@@ -3810,7 +4478,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3821,7 +4489,7 @@
         <v>218</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L11" t="s">
         <v>220</v>
@@ -3848,7 +4516,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3859,7 +4527,7 @@
         <v>229</v>
       </c>
       <c r="I12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L12" t="s">
         <v>231</v>
@@ -3886,7 +4554,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3897,7 +4565,7 @@
         <v>239</v>
       </c>
       <c r="I13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L13" t="s">
         <v>241</v>
@@ -3909,7 +4577,7 @@
         <v>243</v>
       </c>
       <c r="S13" t="s">
-        <v>244</v>
+        <v>758</v>
       </c>
       <c r="Z13" t="s">
         <v>245</v>
@@ -3921,7 +4589,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3932,7 +4600,7 @@
         <v>249</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L14" t="s">
         <v>251</v>
@@ -3944,7 +4612,7 @@
         <v>253</v>
       </c>
       <c r="S14" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Z14" t="s">
         <v>255</v>
@@ -3956,7 +4624,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3966,6 +4634,9 @@
       <c r="H15" t="s">
         <v>259</v>
       </c>
+      <c r="I15" t="s">
+        <v>250</v>
+      </c>
       <c r="L15" t="s">
         <v>260</v>
       </c>
@@ -3976,10 +4647,10 @@
         <v>262</v>
       </c>
       <c r="S15" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Z15" t="s">
-        <v>264</v>
+        <v>759</v>
       </c>
       <c r="AC15" t="s">
         <v>265</v>
@@ -3988,7 +4659,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4008,10 +4679,10 @@
         <v>271</v>
       </c>
       <c r="S16" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Z16" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AC16" t="s">
         <v>274</v>
@@ -4020,7 +4691,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4036,8 +4707,11 @@
       <c r="N17" t="s">
         <v>279</v>
       </c>
+      <c r="S17" t="s">
+        <v>272</v>
+      </c>
       <c r="Z17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AC17" t="s">
         <v>281</v>
@@ -4046,7 +4720,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4063,13 +4737,13 @@
         <v>286</v>
       </c>
       <c r="Z18" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AE18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4083,13 +4757,13 @@
         <v>291</v>
       </c>
       <c r="Z19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AE19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4103,13 +4777,13 @@
         <v>296</v>
       </c>
       <c r="Z20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AE20" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4123,13 +4797,13 @@
         <v>301</v>
       </c>
       <c r="Z21" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AE21" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4143,13 +4817,13 @@
         <v>306</v>
       </c>
       <c r="Z22" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AE22" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4163,13 +4837,13 @@
         <v>311</v>
       </c>
       <c r="Z23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AE23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4183,13 +4857,13 @@
         <v>316</v>
       </c>
       <c r="Z24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AE24" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4203,13 +4877,13 @@
         <v>321</v>
       </c>
       <c r="Z25" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AE25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4223,13 +4897,13 @@
         <v>326</v>
       </c>
       <c r="Z26" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AE26" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4243,13 +4917,13 @@
         <v>331</v>
       </c>
       <c r="Z27" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AE27" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4263,10 +4937,10 @@
         <v>336</v>
       </c>
       <c r="Z28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4280,10 +4954,10 @@
         <v>340</v>
       </c>
       <c r="Z29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4297,10 +4971,10 @@
         <v>344</v>
       </c>
       <c r="Z30" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4311,10 +4985,10 @@
         <v>347</v>
       </c>
       <c r="Z31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="F32" t="s">
         <v>349</v>
       </c>
@@ -4322,10 +4996,10 @@
         <v>350</v>
       </c>
       <c r="Z32" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="6:26" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="F33" t="s">
         <v>352</v>
       </c>
@@ -4333,10 +5007,10 @@
         <v>353</v>
       </c>
       <c r="Z33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="6:26" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="F34" t="s">
         <v>355</v>
       </c>
@@ -4344,10 +5018,10 @@
         <v>356</v>
       </c>
       <c r="Z34" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="35" spans="6:26" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="F35" t="s">
         <v>358</v>
       </c>
@@ -4355,10 +5029,10 @@
         <v>359</v>
       </c>
       <c r="Z35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="36" spans="6:26" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="F36" t="s">
         <v>361</v>
       </c>
@@ -4366,10 +5040,10 @@
         <v>362</v>
       </c>
       <c r="Z36" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="6:26" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="F37" t="s">
         <v>364</v>
       </c>
@@ -4377,10 +5051,10 @@
         <v>365</v>
       </c>
       <c r="Z37" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="38" spans="6:26" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="F38" t="s">
         <v>367</v>
       </c>
@@ -4388,10 +5062,10 @@
         <v>368</v>
       </c>
       <c r="Z38" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="6:26" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="F39" t="s">
         <v>370</v>
       </c>
@@ -4399,707 +5073,742 @@
         <v>371</v>
       </c>
       <c r="Z39" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="40" spans="6:26" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="H40" t="s">
         <v>373</v>
       </c>
       <c r="Z40" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="6:26" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="H41" t="s">
         <v>375</v>
       </c>
       <c r="Z41" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="42" spans="6:26" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="H42" t="s">
         <v>377</v>
       </c>
       <c r="Z42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="6:26" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="H43" t="s">
         <v>379</v>
       </c>
       <c r="Z43" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="6:26" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="H44" t="s">
         <v>381</v>
       </c>
       <c r="Z44" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="45" spans="6:26" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="H45" t="s">
         <v>383</v>
       </c>
       <c r="Z45" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="6:26" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="H46" t="s">
         <v>385</v>
       </c>
       <c r="Z46" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="6:26" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="H47" t="s">
         <v>387</v>
       </c>
       <c r="Z47" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="48" spans="6:26" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="H48" t="s">
         <v>389</v>
       </c>
       <c r="Z48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="H49" t="s">
         <v>391</v>
       </c>
       <c r="Z49" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="8:26" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="H50" t="s">
         <v>393</v>
       </c>
       <c r="Z50" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="H51" t="s">
         <v>395</v>
       </c>
       <c r="Z51" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="H52" t="s">
         <v>397</v>
       </c>
       <c r="Z52" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="H53" t="s">
         <v>399</v>
       </c>
       <c r="Z53" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="8:26" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="H54" t="s">
         <v>401</v>
       </c>
       <c r="Z54" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="H55" t="s">
         <v>403</v>
       </c>
       <c r="Z55" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="H56" t="s">
         <v>405</v>
       </c>
       <c r="Z56" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="H57" t="s">
         <v>407</v>
       </c>
       <c r="Z57" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="58" spans="8:26" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="H58" t="s">
         <v>409</v>
       </c>
       <c r="Z58" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="H59" t="s">
         <v>411</v>
       </c>
       <c r="Z59" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="H60" t="s">
         <v>413</v>
       </c>
       <c r="Z60" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="H61" t="s">
         <v>415</v>
       </c>
       <c r="Z61" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="62" spans="8:26" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="H62" t="s">
         <v>417</v>
       </c>
       <c r="Z62" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="H63" t="s">
         <v>419</v>
       </c>
       <c r="Z63" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="H64" t="s">
         <v>421</v>
       </c>
       <c r="Z64" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="H65" t="s">
         <v>423</v>
       </c>
       <c r="Z65" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="H66" t="s">
         <v>425</v>
       </c>
       <c r="Z66" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="H67" t="s">
         <v>427</v>
       </c>
       <c r="Z67" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="H68" t="s">
         <v>429</v>
       </c>
       <c r="Z68" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="H69" t="s">
         <v>431</v>
       </c>
       <c r="Z69" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="H70" t="s">
         <v>433</v>
       </c>
       <c r="Z70" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="H71" t="s">
         <v>435</v>
       </c>
       <c r="Z71" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="H72" t="s">
         <v>437</v>
       </c>
       <c r="Z72" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="H73" t="s">
         <v>439</v>
       </c>
       <c r="Z73" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="H74" t="s">
         <v>441</v>
       </c>
       <c r="Z74" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="H75" t="s">
         <v>443</v>
       </c>
       <c r="Z75" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="H76" t="s">
         <v>445</v>
       </c>
       <c r="Z76" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="H77" t="s">
         <v>447</v>
       </c>
       <c r="Z77" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="H78" t="s">
         <v>449</v>
       </c>
       <c r="Z78" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="H79" t="s">
         <v>451</v>
       </c>
       <c r="Z79" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>453</v>
       </c>
       <c r="Z80" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="81" spans="8:26" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>455</v>
       </c>
       <c r="Z81" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="82" spans="8:26" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>457</v>
       </c>
       <c r="Z82" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="83" spans="8:26" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>459</v>
       </c>
       <c r="Z83" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="84" spans="8:26" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>461</v>
       </c>
       <c r="Z84" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="85" spans="8:26" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>463</v>
       </c>
       <c r="Z85" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="86" spans="8:26" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>465</v>
       </c>
       <c r="Z86" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="87" spans="8:26" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>467</v>
       </c>
       <c r="Z87" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="88" spans="8:26" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>469</v>
       </c>
       <c r="Z88" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="89" spans="8:26" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>471</v>
       </c>
       <c r="Z89" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="90" spans="8:26" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>473</v>
       </c>
       <c r="Z90" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="91" spans="8:26" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>475</v>
       </c>
       <c r="Z91" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="92" spans="8:26" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>477</v>
       </c>
       <c r="Z92" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="93" spans="8:26" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>479</v>
       </c>
       <c r="Z93" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="94" spans="8:26" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>481</v>
       </c>
       <c r="Z94" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="95" spans="8:26" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>483</v>
       </c>
       <c r="Z95" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="96" spans="8:26" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>485</v>
       </c>
       <c r="Z96" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="97" spans="8:26" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>487</v>
       </c>
       <c r="Z97" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="98" spans="8:26" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>489</v>
       </c>
       <c r="Z98" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="Z100" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="99" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="101" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="102" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="103" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="104" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="105" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="106" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="107" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="Z110" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="108" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z108" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z109" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="110" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z110" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="111" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z111" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z112" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z113" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z114" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z115" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z116" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="Z120" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z117" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z118" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="Z123" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z119" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z120" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z121" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z122" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z123" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z124" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Z130" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z125" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z126" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z127" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z128" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z129" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z130" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z131" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z132" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z133" t="s">
+    <row r="139">
+      <c r="Z139" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z134" t="s">
+    <row r="140">
+      <c r="Z140" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z135" t="s">
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="136" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z136" t="s">
+    <row r="143">
+      <c r="Z143" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="137" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z137" t="s">
+    <row r="144">
+      <c r="Z144" t="s">
         <v>529</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O320"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="80" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A35" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="5" customWidth="1"/>
-    <col min="5" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.83203125" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="41.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.83203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="30.83203125" collapsed="false"/>
+    <col min="5" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="false"/>
+    <col min="16" max="16384" style="10" width="10.83203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>530</v>
       </c>
@@ -5130,7 +5839,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" hidden="1" ht="93" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>537</v>
       </c>
@@ -5151,7 +5860,7 @@
       <c r="N2" s="45"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -5168,7 +5877,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>539</v>
       </c>
@@ -5213,7 +5922,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>552</v>
       </c>
@@ -5242,7 +5951,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
@@ -5267,7 +5976,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>557</v>
       </c>
@@ -5296,7 +6005,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
@@ -5321,7 +6030,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22" t="s">
@@ -5346,7 +6055,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
@@ -5371,7 +6080,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22" t="s">
@@ -5396,7 +6105,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
@@ -5421,7 +6130,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>569</v>
       </c>
@@ -5450,7 +6159,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22" t="s">
@@ -5475,7 +6184,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
@@ -5500,7 +6209,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22" t="s">
@@ -5525,7 +6234,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22" t="s">
@@ -5550,7 +6259,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>580</v>
       </c>
@@ -5579,7 +6288,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
@@ -5604,7 +6313,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
@@ -5629,7 +6338,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
@@ -5654,7 +6363,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>589</v>
       </c>
@@ -5683,7 +6392,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
@@ -5708,7 +6417,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22" t="s">
@@ -5733,7 +6442,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>596</v>
       </c>
@@ -5762,7 +6471,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22" t="s">
@@ -5787,7 +6496,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22" t="s">
@@ -5812,7 +6521,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22" t="s">
@@ -5837,7 +6546,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>605</v>
       </c>
@@ -5866,7 +6575,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22" t="s">
@@ -5891,7 +6600,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
@@ -5916,7 +6625,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22" t="s">
@@ -5941,7 +6650,7 @@
       <c r="N32" s="18"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
@@ -5966,7 +6675,7 @@
       <c r="N33" s="18"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>612</v>
       </c>
@@ -5995,7 +6704,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22" t="s">
@@ -6020,7 +6729,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22" t="s">
@@ -6045,7 +6754,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22" t="s">
@@ -6070,7 +6779,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
@@ -6095,7 +6804,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>622</v>
       </c>
@@ -6124,7 +6833,7 @@
       <c r="N39" s="18"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22" t="s">
@@ -6149,7 +6858,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
@@ -6174,7 +6883,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22" t="s">
@@ -6199,7 +6908,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>631</v>
       </c>
@@ -6228,7 +6937,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22" t="s">
@@ -6253,7 +6962,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22" t="s">
@@ -6278,7 +6987,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22" t="s">
@@ -6303,7 +7012,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>639</v>
       </c>
@@ -6332,7 +7041,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>641</v>
       </c>
@@ -6361,7 +7070,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>643</v>
       </c>
@@ -6390,7 +7099,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>646</v>
       </c>
@@ -6419,7 +7128,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="17"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>649</v>
       </c>
@@ -6448,7 +7157,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>652</v>
       </c>
@@ -6477,7 +7186,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="17"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>740</v>
       </c>
@@ -6504,7 +7213,7 @@
       <c r="N53" s="18"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22" t="s">
@@ -6529,7 +7238,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22" t="s">
@@ -6554,7 +7263,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="17"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="21" t="s">
         <v>748</v>
@@ -6581,7 +7290,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22" t="s">
@@ -6606,7 +7315,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="17"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="21" t="s">
         <v>753</v>
@@ -6633,7 +7342,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="47" t="s">
         <v>756</v>
@@ -6660,7 +7369,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="17"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="29"/>
@@ -6677,7 +7386,7 @@
       <c r="N60" s="18"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="29"/>
@@ -6694,7 +7403,7 @@
       <c r="N61" s="18"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="29"/>
@@ -6711,7 +7420,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="29"/>
@@ -6728,7 +7437,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="17"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="29"/>
@@ -6745,7 +7454,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="29"/>
@@ -6762,7 +7471,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="29"/>
@@ -6779,7 +7488,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="17"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="29"/>
@@ -6796,7 +7505,7 @@
       <c r="N67" s="18"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="29"/>
@@ -6813,7 +7522,7 @@
       <c r="N68" s="18"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="29"/>
@@ -6830,7 +7539,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="29"/>
@@ -6847,7 +7556,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="29"/>
@@ -6864,7 +7573,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="17"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="29"/>
@@ -6881,7 +7590,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="17"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="29"/>
@@ -6898,7 +7607,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="17"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="29"/>
@@ -6915,7 +7624,7 @@
       <c r="N74" s="18"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="29"/>
@@ -6932,7 +7641,7 @@
       <c r="N75" s="18"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="29"/>
@@ -6949,7 +7658,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="29"/>
@@ -6966,7 +7675,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="17"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="29"/>
@@ -6983,7 +7692,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="29"/>
@@ -7000,7 +7709,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="29"/>
@@ -7017,7 +7726,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="17"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="29"/>
@@ -7034,7 +7743,7 @@
       <c r="N81" s="18"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="29"/>
@@ -7051,7 +7760,7 @@
       <c r="N82" s="18"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="29"/>
@@ -7068,7 +7777,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="29"/>
@@ -7085,7 +7794,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="17"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="29"/>
@@ -7102,7 +7811,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="17"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="29"/>
@@ -7119,7 +7828,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="17"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="29"/>
@@ -7136,7 +7845,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="17"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="29"/>
@@ -7153,7 +7862,7 @@
       <c r="N88" s="18"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="29"/>
@@ -7170,7 +7879,7 @@
       <c r="N89" s="18"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="29"/>
@@ -7187,7 +7896,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="17"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="29"/>
@@ -7204,7 +7913,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="17"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="29"/>
@@ -7221,7 +7930,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="17"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="29"/>
@@ -7238,7 +7947,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="17"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="29"/>
@@ -7255,7 +7964,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="17"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="29"/>
@@ -7272,7 +7981,7 @@
       <c r="N95" s="18"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="29"/>
@@ -7289,7 +7998,7 @@
       <c r="N96" s="18"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="29"/>
@@ -7306,7 +8015,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="17"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="29"/>
@@ -7323,7 +8032,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="17"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="29"/>
@@ -7340,7 +8049,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="17"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="29"/>
@@ -7357,7 +8066,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="17"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="29"/>
@@ -7374,7 +8083,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="17"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="29"/>
@@ -7391,7 +8100,7 @@
       <c r="N102" s="18"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="29"/>
@@ -7408,7 +8117,7 @@
       <c r="N103" s="18"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="29"/>
@@ -7425,7 +8134,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="17"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="29"/>
@@ -7442,7 +8151,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="17"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="29"/>
@@ -7459,7 +8168,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="17"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="29"/>
@@ -7476,7 +8185,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="17"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="29"/>
@@ -7493,7 +8202,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="17"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="29"/>
@@ -7510,7 +8219,7 @@
       <c r="N109" s="18"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="29"/>
@@ -7527,7 +8236,7 @@
       <c r="N110" s="18"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="29"/>
@@ -7544,7 +8253,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="17"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="29"/>
@@ -7561,7 +8270,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="17"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="29"/>
@@ -7578,7 +8287,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="17"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="29"/>
@@ -7595,7 +8304,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="17"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="29"/>
@@ -7612,7 +8321,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="17"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="29"/>
@@ -7629,7 +8338,7 @@
       <c r="N116" s="18"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="29"/>
@@ -7646,7 +8355,7 @@
       <c r="N117" s="18"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="29"/>
@@ -7663,7 +8372,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="17"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="29"/>
@@ -7680,7 +8389,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="17"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="29"/>
@@ -7697,7 +8406,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="17"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="29"/>
@@ -7714,7 +8423,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="17"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="29"/>
@@ -7731,7 +8440,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="17"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="29"/>
@@ -7748,7 +8457,7 @@
       <c r="N123" s="18"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="29"/>
@@ -7765,7 +8474,7 @@
       <c r="N124" s="18"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="29"/>
@@ -7782,7 +8491,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="17"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="29"/>
@@ -7799,7 +8508,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="17"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="29"/>
@@ -7816,7 +8525,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="17"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="29"/>
@@ -7833,7 +8542,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="17"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="29"/>
@@ -7850,7 +8559,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="17"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="29"/>
@@ -7867,7 +8576,7 @@
       <c r="N130" s="18"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="29"/>
@@ -7884,7 +8593,7 @@
       <c r="N131" s="18"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="29"/>
@@ -7901,7 +8610,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="17"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="29"/>
@@ -7918,7 +8627,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="17"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="29"/>
@@ -7935,7 +8644,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="17"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="29"/>
@@ -7952,7 +8661,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="17"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="29"/>
@@ -7969,7 +8678,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="17"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="29"/>
@@ -7986,7 +8695,7 @@
       <c r="N137" s="18"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="29"/>
@@ -8003,7 +8712,7 @@
       <c r="N138" s="18"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="29"/>
@@ -8020,7 +8729,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="17"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="29"/>
@@ -8037,7 +8746,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="17"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="29"/>
@@ -8054,7 +8763,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="17"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="29"/>
@@ -8071,7 +8780,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="17"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="29"/>
@@ -8088,7 +8797,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="17"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="29"/>
@@ -8105,7 +8814,7 @@
       <c r="N144" s="18"/>
       <c r="O144" s="17"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="29"/>
@@ -8122,7 +8831,7 @@
       <c r="N145" s="18"/>
       <c r="O145" s="17"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="29"/>
@@ -8139,7 +8848,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="17"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="29"/>
@@ -8156,7 +8865,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="17"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="29"/>
@@ -8173,7 +8882,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="17"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="29"/>
@@ -8190,7 +8899,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="17"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="29"/>
@@ -8207,7 +8916,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="17"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="29"/>
@@ -8224,7 +8933,7 @@
       <c r="N151" s="18"/>
       <c r="O151" s="17"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="29"/>
@@ -8241,7 +8950,7 @@
       <c r="N152" s="18"/>
       <c r="O152" s="17"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="29"/>
@@ -8258,7 +8967,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="17"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="29"/>
@@ -8275,7 +8984,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="17"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="29"/>
@@ -8292,7 +9001,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="17"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="29"/>
@@ -8309,7 +9018,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="17"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="29"/>
@@ -8326,7 +9035,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="17"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="29"/>
@@ -8343,7 +9052,7 @@
       <c r="N158" s="18"/>
       <c r="O158" s="17"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="29"/>
@@ -8360,7 +9069,7 @@
       <c r="N159" s="18"/>
       <c r="O159" s="17"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="29"/>
@@ -8377,7 +9086,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="17"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="29"/>
@@ -8394,7 +9103,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="17"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="29"/>
@@ -8411,7 +9120,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="17"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="29"/>
@@ -8428,7 +9137,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="17"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="29"/>
@@ -8445,7 +9154,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="17"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="29"/>
@@ -8462,7 +9171,7 @@
       <c r="N165" s="18"/>
       <c r="O165" s="17"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="29"/>
@@ -8479,7 +9188,7 @@
       <c r="N166" s="18"/>
       <c r="O166" s="17"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="29"/>
@@ -8496,7 +9205,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="17"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="29"/>
@@ -8513,7 +9222,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="17"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="29"/>
@@ -8530,7 +9239,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="17"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="29"/>
@@ -8547,7 +9256,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="17"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="29"/>
@@ -8564,7 +9273,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="17"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="29"/>
@@ -8581,7 +9290,7 @@
       <c r="N172" s="18"/>
       <c r="O172" s="17"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="29"/>
@@ -8598,7 +9307,7 @@
       <c r="N173" s="18"/>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="29"/>
@@ -8615,7 +9324,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="17"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="29"/>
@@ -8632,7 +9341,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="17"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="29"/>
@@ -8649,7 +9358,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="17"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="29"/>
@@ -8666,7 +9375,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="17"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="29"/>
@@ -8683,7 +9392,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="17"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="29"/>
@@ -8700,7 +9409,7 @@
       <c r="N179" s="18"/>
       <c r="O179" s="17"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="29"/>
@@ -8717,7 +9426,7 @@
       <c r="N180" s="18"/>
       <c r="O180" s="17"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="29"/>
@@ -8734,7 +9443,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="17"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="29"/>
@@ -8751,7 +9460,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="17"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="29"/>
@@ -8768,7 +9477,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="17"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="29"/>
@@ -8785,7 +9494,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="17"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="29"/>
@@ -8802,7 +9511,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="17"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="29"/>
@@ -8819,7 +9528,7 @@
       <c r="N186" s="18"/>
       <c r="O186" s="17"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="29"/>
@@ -8836,7 +9545,7 @@
       <c r="N187" s="18"/>
       <c r="O187" s="17"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="29"/>
@@ -8853,7 +9562,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="17"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="29"/>
@@ -8870,7 +9579,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="17"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="29"/>
@@ -8887,7 +9596,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="17"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="29"/>
@@ -8904,7 +9613,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="17"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="29"/>
@@ -8921,7 +9630,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="17"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="29"/>
@@ -8938,7 +9647,7 @@
       <c r="N193" s="18"/>
       <c r="O193" s="17"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="29"/>
@@ -8955,7 +9664,7 @@
       <c r="N194" s="18"/>
       <c r="O194" s="17"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="29"/>
@@ -8972,7 +9681,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="17"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="29"/>
@@ -8989,7 +9698,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="17"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="29"/>
@@ -9006,7 +9715,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="17"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="29"/>
@@ -9023,7 +9732,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="17"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="29"/>
@@ -9040,7 +9749,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="17"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="29"/>
@@ -9057,7 +9766,7 @@
       <c r="N200" s="18"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="29"/>
@@ -9074,7 +9783,7 @@
       <c r="N201" s="18"/>
       <c r="O201" s="17"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="14"/>
       <c r="B202" s="15"/>
       <c r="C202" s="29"/>
@@ -9091,7 +9800,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="17"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="14"/>
       <c r="B203" s="15"/>
       <c r="C203" s="29"/>
@@ -9108,7 +9817,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="17"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="29"/>
@@ -9125,7 +9834,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="17"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="14"/>
       <c r="B205" s="15"/>
       <c r="C205" s="29"/>
@@ -9142,7 +9851,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="17"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="14"/>
       <c r="B206" s="15"/>
       <c r="C206" s="29"/>
@@ -9159,7 +9868,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="17"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="14"/>
       <c r="B207" s="15"/>
       <c r="C207" s="29"/>
@@ -9176,7 +9885,7 @@
       <c r="N207" s="18"/>
       <c r="O207" s="17"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="14"/>
       <c r="B208" s="15"/>
       <c r="C208" s="29"/>
@@ -9193,7 +9902,7 @@
       <c r="N208" s="18"/>
       <c r="O208" s="17"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="14"/>
       <c r="B209" s="15"/>
       <c r="C209" s="29"/>
@@ -9210,7 +9919,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="17"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="14"/>
       <c r="B210" s="15"/>
       <c r="C210" s="29"/>
@@ -9227,7 +9936,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="17"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="14"/>
       <c r="B211" s="15"/>
       <c r="C211" s="29"/>
@@ -9244,7 +9953,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="17"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="14"/>
       <c r="B212" s="15"/>
       <c r="C212" s="29"/>
@@ -9261,7 +9970,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="17"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="14"/>
       <c r="B213" s="15"/>
       <c r="C213" s="29"/>
@@ -9278,7 +9987,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="17"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="14"/>
       <c r="B214" s="15"/>
       <c r="C214" s="29"/>
@@ -9295,7 +10004,7 @@
       <c r="N214" s="18"/>
       <c r="O214" s="17"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="14"/>
       <c r="B215" s="15"/>
       <c r="C215" s="29"/>
@@ -9312,7 +10021,7 @@
       <c r="N215" s="18"/>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="14"/>
       <c r="B216" s="15"/>
       <c r="C216" s="29"/>
@@ -9329,7 +10038,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="17"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="14"/>
       <c r="B217" s="15"/>
       <c r="C217" s="29"/>
@@ -9346,7 +10055,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="17"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="14"/>
       <c r="B218" s="15"/>
       <c r="C218" s="29"/>
@@ -9363,7 +10072,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="17"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="14"/>
       <c r="B219" s="15"/>
       <c r="C219" s="29"/>
@@ -9380,7 +10089,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="17"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="14"/>
       <c r="B220" s="15"/>
       <c r="C220" s="29"/>
@@ -9397,7 +10106,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="17"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="14"/>
       <c r="B221" s="15"/>
       <c r="C221" s="29"/>
@@ -9414,7 +10123,7 @@
       <c r="N221" s="18"/>
       <c r="O221" s="17"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="14"/>
       <c r="B222" s="15"/>
       <c r="C222" s="29"/>
@@ -9431,7 +10140,7 @@
       <c r="N222" s="18"/>
       <c r="O222" s="17"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="14"/>
       <c r="B223" s="15"/>
       <c r="C223" s="29"/>
@@ -9448,7 +10157,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="17"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="14"/>
       <c r="B224" s="15"/>
       <c r="C224" s="29"/>
@@ -9465,7 +10174,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="17"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="14"/>
       <c r="B225" s="15"/>
       <c r="C225" s="29"/>
@@ -9482,7 +10191,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="17"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="14"/>
       <c r="B226" s="15"/>
       <c r="C226" s="29"/>
@@ -9499,7 +10208,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="17"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="14"/>
       <c r="B227" s="15"/>
       <c r="C227" s="29"/>
@@ -9516,7 +10225,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="17"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="14"/>
       <c r="B228" s="15"/>
       <c r="C228" s="29"/>
@@ -9533,7 +10242,7 @@
       <c r="N228" s="18"/>
       <c r="O228" s="17"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="14"/>
       <c r="B229" s="15"/>
       <c r="C229" s="29"/>
@@ -9550,7 +10259,7 @@
       <c r="N229" s="18"/>
       <c r="O229" s="17"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="14"/>
       <c r="B230" s="15"/>
       <c r="C230" s="29"/>
@@ -9567,7 +10276,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="17"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="14"/>
       <c r="B231" s="15"/>
       <c r="C231" s="29"/>
@@ -9584,7 +10293,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="17"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="14"/>
       <c r="B232" s="15"/>
       <c r="C232" s="29"/>
@@ -9601,7 +10310,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="17"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="14"/>
       <c r="B233" s="15"/>
       <c r="C233" s="29"/>
@@ -9618,7 +10327,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="17"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="14"/>
       <c r="B234" s="15"/>
       <c r="C234" s="29"/>
@@ -9635,7 +10344,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="17"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="14"/>
       <c r="B235" s="15"/>
       <c r="C235" s="29"/>
@@ -9652,7 +10361,7 @@
       <c r="N235" s="18"/>
       <c r="O235" s="17"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="14"/>
       <c r="B236" s="15"/>
       <c r="C236" s="29"/>
@@ -9669,7 +10378,7 @@
       <c r="N236" s="18"/>
       <c r="O236" s="17"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="14"/>
       <c r="B237" s="15"/>
       <c r="C237" s="29"/>
@@ -9686,7 +10395,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="17"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="14"/>
       <c r="B238" s="15"/>
       <c r="C238" s="29"/>
@@ -9703,7 +10412,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="17"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="14"/>
       <c r="B239" s="15"/>
       <c r="C239" s="29"/>
@@ -9720,7 +10429,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="17"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="14"/>
       <c r="B240" s="15"/>
       <c r="C240" s="29"/>
@@ -9737,7 +10446,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="17"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="14"/>
       <c r="B241" s="15"/>
       <c r="C241" s="29"/>
@@ -9754,7 +10463,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="17"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="14"/>
       <c r="B242" s="15"/>
       <c r="C242" s="29"/>
@@ -9771,7 +10480,7 @@
       <c r="N242" s="18"/>
       <c r="O242" s="17"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="14"/>
       <c r="B243" s="15"/>
       <c r="C243" s="29"/>
@@ -9788,7 +10497,7 @@
       <c r="N243" s="18"/>
       <c r="O243" s="17"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="14"/>
       <c r="B244" s="15"/>
       <c r="C244" s="29"/>
@@ -9805,7 +10514,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="17"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="14"/>
       <c r="B245" s="15"/>
       <c r="C245" s="29"/>
@@ -9822,7 +10531,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="17"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="14"/>
       <c r="B246" s="15"/>
       <c r="C246" s="29"/>
@@ -9839,7 +10548,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="17"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="14"/>
       <c r="B247" s="15"/>
       <c r="C247" s="29"/>
@@ -9856,7 +10565,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="17"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="14"/>
       <c r="B248" s="15"/>
       <c r="C248" s="29"/>
@@ -9873,7 +10582,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="17"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="14"/>
       <c r="B249" s="15"/>
       <c r="C249" s="29"/>
@@ -9890,7 +10599,7 @@
       <c r="N249" s="18"/>
       <c r="O249" s="17"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="14"/>
       <c r="B250" s="15"/>
       <c r="C250" s="29"/>
@@ -9907,7 +10616,7 @@
       <c r="N250" s="18"/>
       <c r="O250" s="17"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="14"/>
       <c r="B251" s="15"/>
       <c r="C251" s="29"/>
@@ -9924,7 +10633,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="17"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
       <c r="B252" s="15"/>
       <c r="C252" s="29"/>
@@ -9941,7 +10650,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="17"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="14"/>
       <c r="B253" s="15"/>
       <c r="C253" s="29"/>
@@ -9958,7 +10667,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="17"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="14"/>
       <c r="B254" s="15"/>
       <c r="C254" s="29"/>
@@ -9975,7 +10684,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="17"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="14"/>
       <c r="B255" s="15"/>
       <c r="C255" s="29"/>
@@ -9992,7 +10701,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="17"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="14"/>
       <c r="B256" s="15"/>
       <c r="C256" s="29"/>
@@ -10009,7 +10718,7 @@
       <c r="N256" s="18"/>
       <c r="O256" s="17"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="14"/>
       <c r="B257" s="15"/>
       <c r="C257" s="29"/>
@@ -10026,7 +10735,7 @@
       <c r="N257" s="18"/>
       <c r="O257" s="17"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="14"/>
       <c r="B258" s="15"/>
       <c r="C258" s="29"/>
@@ -10043,7 +10752,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="17"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="14"/>
       <c r="B259" s="15"/>
       <c r="C259" s="29"/>
@@ -10060,7 +10769,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="17"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="14"/>
       <c r="B260" s="15"/>
       <c r="C260" s="29"/>
@@ -10077,7 +10786,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="17"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="14"/>
       <c r="B261" s="15"/>
       <c r="C261" s="29"/>
@@ -10094,7 +10803,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="17"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="14"/>
       <c r="B262" s="15"/>
       <c r="C262" s="29"/>
@@ -10111,7 +10820,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="17"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="14"/>
       <c r="B263" s="15"/>
       <c r="C263" s="29"/>
@@ -10128,7 +10837,7 @@
       <c r="N263" s="18"/>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="14"/>
       <c r="B264" s="15"/>
       <c r="C264" s="29"/>
@@ -10145,7 +10854,7 @@
       <c r="N264" s="18"/>
       <c r="O264" s="17"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="14"/>
       <c r="B265" s="15"/>
       <c r="C265" s="29"/>
@@ -10162,7 +10871,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="17"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="14"/>
       <c r="B266" s="15"/>
       <c r="C266" s="29"/>
@@ -10179,7 +10888,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="17"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="14"/>
       <c r="B267" s="15"/>
       <c r="C267" s="29"/>
@@ -10196,7 +10905,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="17"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="14"/>
       <c r="B268" s="15"/>
       <c r="C268" s="29"/>
@@ -10213,7 +10922,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="17"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="14"/>
       <c r="B269" s="15"/>
       <c r="C269" s="29"/>
@@ -10230,7 +10939,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="17"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="14"/>
       <c r="B270" s="15"/>
       <c r="C270" s="29"/>
@@ -10247,7 +10956,7 @@
       <c r="N270" s="18"/>
       <c r="O270" s="17"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="14"/>
       <c r="B271" s="15"/>
       <c r="C271" s="29"/>
@@ -10264,7 +10973,7 @@
       <c r="N271" s="18"/>
       <c r="O271" s="17"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="14"/>
       <c r="B272" s="15"/>
       <c r="C272" s="29"/>
@@ -10281,7 +10990,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="17"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="14"/>
       <c r="B273" s="15"/>
       <c r="C273" s="29"/>
@@ -10298,7 +11007,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="17"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="14"/>
       <c r="B274" s="15"/>
       <c r="C274" s="29"/>
@@ -10315,7 +11024,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="17"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="14"/>
       <c r="B275" s="15"/>
       <c r="C275" s="29"/>
@@ -10332,7 +11041,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="17"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="14"/>
       <c r="B276" s="15"/>
       <c r="C276" s="29"/>
@@ -10349,7 +11058,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="17"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="14"/>
       <c r="B277" s="15"/>
       <c r="C277" s="29"/>
@@ -10366,7 +11075,7 @@
       <c r="N277" s="18"/>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="14"/>
       <c r="B278" s="15"/>
       <c r="C278" s="29"/>
@@ -10383,7 +11092,7 @@
       <c r="N278" s="18"/>
       <c r="O278" s="17"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="14"/>
       <c r="B279" s="15"/>
       <c r="C279" s="29"/>
@@ -10400,7 +11109,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="17"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="14"/>
       <c r="B280" s="15"/>
       <c r="C280" s="29"/>
@@ -10417,7 +11126,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="17"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="14"/>
       <c r="B281" s="15"/>
       <c r="C281" s="29"/>
@@ -10434,7 +11143,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="17"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="14"/>
       <c r="B282" s="15"/>
       <c r="C282" s="29"/>
@@ -10451,7 +11160,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="17"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="14"/>
       <c r="B283" s="15"/>
       <c r="C283" s="29"/>
@@ -10468,7 +11177,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="17"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="14"/>
       <c r="B284" s="15"/>
       <c r="C284" s="29"/>
@@ -10485,7 +11194,7 @@
       <c r="N284" s="18"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="14"/>
       <c r="B285" s="15"/>
       <c r="C285" s="29"/>
@@ -10502,7 +11211,7 @@
       <c r="N285" s="18"/>
       <c r="O285" s="17"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="14"/>
       <c r="B286" s="15"/>
       <c r="C286" s="29"/>
@@ -10519,7 +11228,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="17"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="14"/>
       <c r="B287" s="15"/>
       <c r="C287" s="29"/>
@@ -10536,7 +11245,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="17"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="14"/>
       <c r="B288" s="15"/>
       <c r="C288" s="29"/>
@@ -10553,7 +11262,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="17"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="14"/>
       <c r="B289" s="15"/>
       <c r="C289" s="29"/>
@@ -10570,7 +11279,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="17"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="14"/>
       <c r="B290" s="15"/>
       <c r="C290" s="29"/>
@@ -10587,7 +11296,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="17"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="14"/>
       <c r="B291" s="15"/>
       <c r="C291" s="29"/>
@@ -10604,7 +11313,7 @@
       <c r="N291" s="18"/>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="14"/>
       <c r="B292" s="15"/>
       <c r="C292" s="29"/>
@@ -10621,7 +11330,7 @@
       <c r="N292" s="18"/>
       <c r="O292" s="17"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="14"/>
       <c r="B293" s="15"/>
       <c r="C293" s="29"/>
@@ -10638,7 +11347,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="17"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="14"/>
       <c r="B294" s="15"/>
       <c r="C294" s="29"/>
@@ -10655,7 +11364,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="17"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="14"/>
       <c r="B295" s="15"/>
       <c r="C295" s="29"/>
@@ -10672,7 +11381,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="17"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="14"/>
       <c r="B296" s="15"/>
       <c r="C296" s="29"/>
@@ -10689,7 +11398,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="17"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="14"/>
       <c r="B297" s="15"/>
       <c r="C297" s="29"/>
@@ -10706,7 +11415,7 @@
       <c r="N297" s="18"/>
       <c r="O297" s="17"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="14"/>
       <c r="B298" s="15"/>
       <c r="C298" s="29"/>
@@ -10723,7 +11432,7 @@
       <c r="N298" s="18"/>
       <c r="O298" s="17"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="14"/>
       <c r="B299" s="15"/>
       <c r="C299" s="29"/>
@@ -10740,7 +11449,7 @@
       <c r="N299" s="18"/>
       <c r="O299" s="17"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="14"/>
       <c r="B300" s="15"/>
       <c r="C300" s="29"/>
@@ -10757,7 +11466,7 @@
       <c r="N300" s="18"/>
       <c r="O300" s="17"/>
     </row>
-    <row r="301" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="14"/>
       <c r="B301" s="15"/>
       <c r="C301" s="29"/>
@@ -10774,7 +11483,7 @@
       <c r="N301" s="18"/>
       <c r="O301" s="17"/>
     </row>
-    <row r="302" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="14"/>
       <c r="B302" s="15"/>
       <c r="C302" s="29"/>
@@ -10791,7 +11500,7 @@
       <c r="N302" s="18"/>
       <c r="O302" s="17"/>
     </row>
-    <row r="303" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="14"/>
       <c r="B303" s="15"/>
       <c r="C303" s="29"/>
@@ -10808,7 +11517,7 @@
       <c r="N303" s="18"/>
       <c r="O303" s="17"/>
     </row>
-    <row r="304" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="14"/>
       <c r="B304" s="15"/>
       <c r="C304" s="29"/>
@@ -10825,7 +11534,7 @@
       <c r="N304" s="18"/>
       <c r="O304" s="17"/>
     </row>
-    <row r="305" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="14"/>
       <c r="B305" s="15"/>
       <c r="C305" s="29"/>
@@ -10842,7 +11551,7 @@
       <c r="N305" s="18"/>
       <c r="O305" s="17"/>
     </row>
-    <row r="306" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="14"/>
       <c r="B306" s="15"/>
       <c r="C306" s="29"/>
@@ -10859,7 +11568,7 @@
       <c r="N306" s="18"/>
       <c r="O306" s="17"/>
     </row>
-    <row r="307" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="14"/>
       <c r="B307" s="15"/>
       <c r="C307" s="29"/>
@@ -10876,7 +11585,7 @@
       <c r="N307" s="18"/>
       <c r="O307" s="17"/>
     </row>
-    <row r="308" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="14"/>
       <c r="B308" s="15"/>
       <c r="C308" s="29"/>
@@ -10893,7 +11602,7 @@
       <c r="N308" s="18"/>
       <c r="O308" s="17"/>
     </row>
-    <row r="309" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="14"/>
       <c r="B309" s="15"/>
       <c r="C309" s="29"/>
@@ -10910,7 +11619,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="17"/>
     </row>
-    <row r="310" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="14"/>
       <c r="B310" s="15"/>
       <c r="C310" s="29"/>
@@ -10927,7 +11636,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="17"/>
     </row>
-    <row r="311" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="14"/>
       <c r="B311" s="15"/>
       <c r="C311" s="29"/>
@@ -10944,7 +11653,7 @@
       <c r="N311" s="18"/>
       <c r="O311" s="17"/>
     </row>
-    <row r="312" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="14"/>
       <c r="B312" s="15"/>
       <c r="C312" s="29"/>
@@ -10961,7 +11670,7 @@
       <c r="N312" s="18"/>
       <c r="O312" s="17"/>
     </row>
-    <row r="313" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="14"/>
       <c r="B313" s="15"/>
       <c r="C313" s="29"/>
@@ -10978,7 +11687,7 @@
       <c r="N313" s="18"/>
       <c r="O313" s="17"/>
     </row>
-    <row r="314" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="14"/>
       <c r="B314" s="15"/>
       <c r="C314" s="29"/>
@@ -10995,7 +11704,7 @@
       <c r="N314" s="18"/>
       <c r="O314" s="17"/>
     </row>
-    <row r="315" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="14"/>
       <c r="B315" s="15"/>
       <c r="C315" s="29"/>
@@ -11012,7 +11721,7 @@
       <c r="N315" s="18"/>
       <c r="O315" s="17"/>
     </row>
-    <row r="316" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="14"/>
       <c r="B316" s="15"/>
       <c r="C316" s="29"/>
@@ -11029,7 +11738,7 @@
       <c r="N316" s="18"/>
       <c r="O316" s="17"/>
     </row>
-    <row r="317" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="14"/>
       <c r="B317" s="15"/>
       <c r="C317" s="29"/>
@@ -11046,7 +11755,7 @@
       <c r="N317" s="18"/>
       <c r="O317" s="17"/>
     </row>
-    <row r="318" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="14"/>
       <c r="B318" s="15"/>
       <c r="C318" s="29"/>
@@ -11063,7 +11772,7 @@
       <c r="N318" s="18"/>
       <c r="O318" s="17"/>
     </row>
-    <row r="319" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="14"/>
       <c r="B319" s="15"/>
       <c r="C319" s="29"/>
@@ -11080,7 +11789,7 @@
       <c r="N319" s="18"/>
       <c r="O319" s="17"/>
     </row>
-    <row r="320" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="14"/>
       <c r="B320" s="15"/>
       <c r="C320" s="29"/>
@@ -11098,7 +11807,7 @@
       <c r="O320" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -11106,65 +11815,65 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N3:N320">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N321:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C320" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C320" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D320" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D320" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P311"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="80" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="5" customWidth="1"/>
-    <col min="5" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.83203125" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="41.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.83203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="30.83203125" collapsed="false"/>
+    <col min="5" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="false"/>
+    <col min="16" max="16384" style="10" width="10.83203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>530</v>
       </c>
@@ -11195,7 +11904,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" hidden="1" ht="93" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>537</v>
       </c>
@@ -11216,7 +11925,7 @@
       <c r="N2" s="45"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -11233,7 +11942,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>539</v>
       </c>
@@ -11278,7 +11987,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>655</v>
       </c>
@@ -11307,7 +12016,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
@@ -11332,7 +12041,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>660</v>
       </c>
@@ -11361,7 +12070,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
@@ -11386,7 +12095,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>662</v>
       </c>
@@ -11415,7 +12124,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>665</v>
       </c>
@@ -11444,7 +12153,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>668</v>
       </c>
@@ -11473,7 +12182,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
@@ -11502,7 +12211,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
@@ -11525,7 +12234,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>674</v>
       </c>
@@ -11554,7 +12263,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
@@ -11579,7 +12288,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22" t="s">
@@ -11604,7 +12313,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>680</v>
       </c>
@@ -11633,7 +12342,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
@@ -11658,7 +12367,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
@@ -11683,7 +12392,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>686</v>
       </c>
@@ -11712,7 +12421,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>689</v>
       </c>
@@ -11741,7 +12450,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22" t="s">
@@ -11766,7 +12475,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
@@ -11791,7 +12500,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22" t="s">
@@ -11816,7 +12525,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22" t="s">
@@ -11841,7 +12550,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22" t="s">
@@ -11866,7 +12575,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22" t="s">
@@ -11891,7 +12600,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22" t="s">
@@ -11916,7 +12625,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>706</v>
       </c>
@@ -11945,7 +12654,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>709</v>
       </c>
@@ -11974,7 +12683,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
@@ -11999,7 +12708,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22" t="s">
@@ -12024,7 +12733,7 @@
       <c r="N32" s="18"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
@@ -12049,7 +12758,7 @@
       <c r="N33" s="18"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22" t="s">
@@ -12074,7 +12783,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22" t="s">
@@ -12099,7 +12808,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22" t="s">
@@ -12122,7 +12831,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22" t="s">
@@ -12145,7 +12854,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
@@ -12168,7 +12877,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>722</v>
       </c>
@@ -12197,7 +12906,7 @@
       <c r="N39" s="18"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>725</v>
       </c>
@@ -12226,7 +12935,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>728</v>
       </c>
@@ -12255,7 +12964,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>731</v>
       </c>
@@ -12284,7 +12993,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>734</v>
       </c>
@@ -12313,7 +13022,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22" t="s">
@@ -12338,7 +13047,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>737</v>
       </c>
@@ -12367,7 +13076,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -12384,7 +13093,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -12401,7 +13110,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="28"/>
       <c r="C48" s="22"/>
@@ -12418,7 +13127,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="29"/>
@@ -12435,7 +13144,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="29"/>
@@ -12452,7 +13161,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="17"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="29"/>
@@ -12469,7 +13178,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="29"/>
@@ -12486,7 +13195,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="17"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="29"/>
@@ -12503,7 +13212,7 @@
       <c r="N53" s="18"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="29"/>
@@ -12518,7 +13227,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="29"/>
@@ -12533,7 +13242,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="17"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="29"/>
@@ -12550,7 +13259,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="29"/>
@@ -12567,7 +13276,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="17"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="29"/>
@@ -12584,7 +13293,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
       <c r="C59" s="29"/>
@@ -12601,7 +13310,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="17"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="29"/>
@@ -12618,7 +13327,7 @@
       <c r="N60" s="18"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="29"/>
@@ -12635,7 +13344,7 @@
       <c r="N61" s="18"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="29"/>
@@ -12652,7 +13361,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="29"/>
@@ -12669,7 +13378,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="17"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="29"/>
@@ -12686,7 +13395,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="29"/>
@@ -12703,7 +13412,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="29"/>
@@ -12720,7 +13429,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="17"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="29"/>
@@ -12737,7 +13446,7 @@
       <c r="N67" s="18"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="29"/>
@@ -12754,7 +13463,7 @@
       <c r="N68" s="18"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="29"/>
@@ -12771,7 +13480,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="29"/>
@@ -12788,7 +13497,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="29"/>
@@ -12805,7 +13514,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="17"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="29"/>
@@ -12822,7 +13531,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="17"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="29"/>
@@ -12839,7 +13548,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="17"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="29"/>
@@ -12856,7 +13565,7 @@
       <c r="N74" s="18"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="29"/>
@@ -12873,7 +13582,7 @@
       <c r="N75" s="18"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="29"/>
@@ -12890,7 +13599,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="29"/>
@@ -12907,7 +13616,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="17"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="29"/>
@@ -12924,7 +13633,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="29"/>
@@ -12941,7 +13650,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="29"/>
@@ -12958,7 +13667,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="17"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="29"/>
@@ -12975,7 +13684,7 @@
       <c r="N81" s="18"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="29"/>
@@ -12992,7 +13701,7 @@
       <c r="N82" s="18"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="29"/>
@@ -13009,7 +13718,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="29"/>
@@ -13026,7 +13735,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="17"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="29"/>
@@ -13043,7 +13752,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="17"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="29"/>
@@ -13060,7 +13769,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="17"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="29"/>
@@ -13077,7 +13786,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="17"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="29"/>
@@ -13094,7 +13803,7 @@
       <c r="N88" s="18"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="29"/>
@@ -13111,7 +13820,7 @@
       <c r="N89" s="18"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="29"/>
@@ -13128,7 +13837,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="17"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="29"/>
@@ -13145,7 +13854,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="17"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="29"/>
@@ -13162,7 +13871,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="17"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="29"/>
@@ -13179,7 +13888,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="17"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="29"/>
@@ -13196,7 +13905,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="17"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="29"/>
@@ -13213,7 +13922,7 @@
       <c r="N95" s="18"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="29"/>
@@ -13230,7 +13939,7 @@
       <c r="N96" s="18"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="29"/>
@@ -13247,7 +13956,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="17"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="29"/>
@@ -13264,7 +13973,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="17"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="29"/>
@@ -13281,7 +13990,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="17"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="29"/>
@@ -13298,7 +14007,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="17"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="29"/>
@@ -13315,7 +14024,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="17"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="29"/>
@@ -13332,7 +14041,7 @@
       <c r="N102" s="18"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="29"/>
@@ -13349,7 +14058,7 @@
       <c r="N103" s="18"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="29"/>
@@ -13366,7 +14075,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="17"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="29"/>
@@ -13383,7 +14092,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="17"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="29"/>
@@ -13400,7 +14109,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="17"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="29"/>
@@ -13417,7 +14126,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="17"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="29"/>
@@ -13434,7 +14143,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="17"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="29"/>
@@ -13451,7 +14160,7 @@
       <c r="N109" s="18"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="29"/>
@@ -13468,7 +14177,7 @@
       <c r="N110" s="18"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="29"/>
@@ -13485,7 +14194,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="17"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="29"/>
@@ -13502,7 +14211,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="17"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="29"/>
@@ -13519,7 +14228,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="17"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="29"/>
@@ -13536,7 +14245,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="17"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="29"/>
@@ -13553,7 +14262,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="17"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="29"/>
@@ -13570,7 +14279,7 @@
       <c r="N116" s="18"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="29"/>
@@ -13587,7 +14296,7 @@
       <c r="N117" s="18"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="29"/>
@@ -13604,7 +14313,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="17"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="29"/>
@@ -13621,7 +14330,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="17"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="29"/>
@@ -13638,7 +14347,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="17"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="29"/>
@@ -13655,7 +14364,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="17"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="29"/>
@@ -13672,7 +14381,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="17"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="29"/>
@@ -13689,7 +14398,7 @@
       <c r="N123" s="18"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="29"/>
@@ -13706,7 +14415,7 @@
       <c r="N124" s="18"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="29"/>
@@ -13723,7 +14432,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="17"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="29"/>
@@ -13740,7 +14449,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="17"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="29"/>
@@ -13757,7 +14466,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="17"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="29"/>
@@ -13774,7 +14483,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="17"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="29"/>
@@ -13791,7 +14500,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="17"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="29"/>
@@ -13808,7 +14517,7 @@
       <c r="N130" s="18"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="29"/>
@@ -13825,7 +14534,7 @@
       <c r="N131" s="18"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="29"/>
@@ -13842,7 +14551,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="17"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="29"/>
@@ -13859,7 +14568,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="17"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="29"/>
@@ -13876,7 +14585,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="17"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="29"/>
@@ -13893,7 +14602,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="17"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="29"/>
@@ -13910,7 +14619,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="17"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="29"/>
@@ -13927,7 +14636,7 @@
       <c r="N137" s="18"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="29"/>
@@ -13944,7 +14653,7 @@
       <c r="N138" s="18"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="29"/>
@@ -13961,7 +14670,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="17"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="29"/>
@@ -13978,7 +14687,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="17"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="29"/>
@@ -13995,7 +14704,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="17"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="29"/>
@@ -14012,7 +14721,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="17"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="29"/>
@@ -14029,7 +14738,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="17"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="29"/>
@@ -14046,7 +14755,7 @@
       <c r="N144" s="18"/>
       <c r="O144" s="17"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="29"/>
@@ -14063,7 +14772,7 @@
       <c r="N145" s="18"/>
       <c r="O145" s="17"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="29"/>
@@ -14080,7 +14789,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="17"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="29"/>
@@ -14097,7 +14806,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="17"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="29"/>
@@ -14114,7 +14823,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="17"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="29"/>
@@ -14131,7 +14840,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="17"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="29"/>
@@ -14148,7 +14857,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="17"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="29"/>
@@ -14165,7 +14874,7 @@
       <c r="N151" s="18"/>
       <c r="O151" s="17"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="29"/>
@@ -14182,7 +14891,7 @@
       <c r="N152" s="18"/>
       <c r="O152" s="17"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="29"/>
@@ -14199,7 +14908,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="17"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="29"/>
@@ -14216,7 +14925,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="17"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="29"/>
@@ -14233,7 +14942,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="17"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="29"/>
@@ -14250,7 +14959,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="17"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="29"/>
@@ -14267,7 +14976,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="17"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="29"/>
@@ -14284,7 +14993,7 @@
       <c r="N158" s="18"/>
       <c r="O158" s="17"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="29"/>
@@ -14301,7 +15010,7 @@
       <c r="N159" s="18"/>
       <c r="O159" s="17"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="29"/>
@@ -14318,7 +15027,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="17"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="29"/>
@@ -14335,7 +15044,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="17"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="29"/>
@@ -14352,7 +15061,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="17"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="29"/>
@@ -14369,7 +15078,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="17"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="29"/>
@@ -14386,7 +15095,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="17"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="29"/>
@@ -14403,7 +15112,7 @@
       <c r="N165" s="18"/>
       <c r="O165" s="17"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="29"/>
@@ -14420,7 +15129,7 @@
       <c r="N166" s="18"/>
       <c r="O166" s="17"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="29"/>
@@ -14437,7 +15146,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="17"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="29"/>
@@ -14454,7 +15163,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="17"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="29"/>
@@ -14471,7 +15180,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="17"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="29"/>
@@ -14488,7 +15197,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="17"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="29"/>
@@ -14505,7 +15214,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="17"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="29"/>
@@ -14522,7 +15231,7 @@
       <c r="N172" s="18"/>
       <c r="O172" s="17"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="29"/>
@@ -14539,7 +15248,7 @@
       <c r="N173" s="18"/>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="29"/>
@@ -14556,7 +15265,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="17"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="29"/>
@@ -14573,7 +15282,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="17"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="29"/>
@@ -14590,7 +15299,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="17"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="29"/>
@@ -14607,7 +15316,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="17"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="29"/>
@@ -14624,7 +15333,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="17"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="29"/>
@@ -14641,7 +15350,7 @@
       <c r="N179" s="18"/>
       <c r="O179" s="17"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="29"/>
@@ -14658,7 +15367,7 @@
       <c r="N180" s="18"/>
       <c r="O180" s="17"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="29"/>
@@ -14675,7 +15384,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="17"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="29"/>
@@ -14692,7 +15401,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="17"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="29"/>
@@ -14709,7 +15418,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="17"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="29"/>
@@ -14726,7 +15435,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="17"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="29"/>
@@ -14743,7 +15452,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="17"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="29"/>
@@ -14760,7 +15469,7 @@
       <c r="N186" s="18"/>
       <c r="O186" s="17"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="29"/>
@@ -14777,7 +15486,7 @@
       <c r="N187" s="18"/>
       <c r="O187" s="17"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="29"/>
@@ -14794,7 +15503,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="17"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="29"/>
@@ -14811,7 +15520,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="17"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="29"/>
@@ -14828,7 +15537,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="17"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="29"/>
@@ -14845,7 +15554,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="17"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="29"/>
@@ -14862,7 +15571,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="17"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="29"/>
@@ -14879,7 +15588,7 @@
       <c r="N193" s="18"/>
       <c r="O193" s="17"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="29"/>
@@ -14896,7 +15605,7 @@
       <c r="N194" s="18"/>
       <c r="O194" s="17"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="29"/>
@@ -14913,7 +15622,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="17"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="29"/>
@@ -14930,7 +15639,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="17"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="29"/>
@@ -14947,7 +15656,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="17"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="29"/>
@@ -14964,7 +15673,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="17"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="29"/>
@@ -14981,7 +15690,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="17"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="29"/>
@@ -14998,7 +15707,7 @@
       <c r="N200" s="18"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="29"/>
@@ -15015,7 +15724,7 @@
       <c r="N201" s="18"/>
       <c r="O201" s="17"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="14"/>
       <c r="B202" s="15"/>
       <c r="C202" s="29"/>
@@ -15032,7 +15741,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="17"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="14"/>
       <c r="B203" s="15"/>
       <c r="C203" s="29"/>
@@ -15049,7 +15758,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="17"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="29"/>
@@ -15066,7 +15775,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="17"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="14"/>
       <c r="B205" s="15"/>
       <c r="C205" s="29"/>
@@ -15083,7 +15792,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="17"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="14"/>
       <c r="B206" s="15"/>
       <c r="C206" s="29"/>
@@ -15100,7 +15809,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="17"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="14"/>
       <c r="B207" s="15"/>
       <c r="C207" s="29"/>
@@ -15117,7 +15826,7 @@
       <c r="N207" s="18"/>
       <c r="O207" s="17"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="14"/>
       <c r="B208" s="15"/>
       <c r="C208" s="29"/>
@@ -15134,7 +15843,7 @@
       <c r="N208" s="18"/>
       <c r="O208" s="17"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="14"/>
       <c r="B209" s="15"/>
       <c r="C209" s="29"/>
@@ -15151,7 +15860,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="17"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="14"/>
       <c r="B210" s="15"/>
       <c r="C210" s="29"/>
@@ -15168,7 +15877,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="17"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="14"/>
       <c r="B211" s="15"/>
       <c r="C211" s="29"/>
@@ -15185,7 +15894,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="17"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="14"/>
       <c r="B212" s="15"/>
       <c r="C212" s="29"/>
@@ -15202,7 +15911,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="17"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="14"/>
       <c r="B213" s="15"/>
       <c r="C213" s="29"/>
@@ -15219,7 +15928,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="17"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="14"/>
       <c r="B214" s="15"/>
       <c r="C214" s="29"/>
@@ -15236,7 +15945,7 @@
       <c r="N214" s="18"/>
       <c r="O214" s="17"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="14"/>
       <c r="B215" s="15"/>
       <c r="C215" s="29"/>
@@ -15253,7 +15962,7 @@
       <c r="N215" s="18"/>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="14"/>
       <c r="B216" s="15"/>
       <c r="C216" s="29"/>
@@ -15270,7 +15979,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="17"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="14"/>
       <c r="B217" s="15"/>
       <c r="C217" s="29"/>
@@ -15287,7 +15996,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="17"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="14"/>
       <c r="B218" s="15"/>
       <c r="C218" s="29"/>
@@ -15304,7 +16013,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="17"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="14"/>
       <c r="B219" s="15"/>
       <c r="C219" s="29"/>
@@ -15321,7 +16030,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="17"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="14"/>
       <c r="B220" s="15"/>
       <c r="C220" s="29"/>
@@ -15338,7 +16047,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="17"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="14"/>
       <c r="B221" s="15"/>
       <c r="C221" s="29"/>
@@ -15355,7 +16064,7 @@
       <c r="N221" s="18"/>
       <c r="O221" s="17"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="14"/>
       <c r="B222" s="15"/>
       <c r="C222" s="29"/>
@@ -15372,7 +16081,7 @@
       <c r="N222" s="18"/>
       <c r="O222" s="17"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="14"/>
       <c r="B223" s="15"/>
       <c r="C223" s="29"/>
@@ -15389,7 +16098,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="17"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="14"/>
       <c r="B224" s="15"/>
       <c r="C224" s="29"/>
@@ -15406,7 +16115,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="17"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="14"/>
       <c r="B225" s="15"/>
       <c r="C225" s="29"/>
@@ -15423,7 +16132,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="17"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="14"/>
       <c r="B226" s="15"/>
       <c r="C226" s="29"/>
@@ -15440,7 +16149,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="17"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="14"/>
       <c r="B227" s="15"/>
       <c r="C227" s="29"/>
@@ -15457,7 +16166,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="17"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="14"/>
       <c r="B228" s="15"/>
       <c r="C228" s="29"/>
@@ -15474,7 +16183,7 @@
       <c r="N228" s="18"/>
       <c r="O228" s="17"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="14"/>
       <c r="B229" s="15"/>
       <c r="C229" s="29"/>
@@ -15491,7 +16200,7 @@
       <c r="N229" s="18"/>
       <c r="O229" s="17"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="14"/>
       <c r="B230" s="15"/>
       <c r="C230" s="29"/>
@@ -15508,7 +16217,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="17"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="14"/>
       <c r="B231" s="15"/>
       <c r="C231" s="29"/>
@@ -15525,7 +16234,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="17"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="14"/>
       <c r="B232" s="15"/>
       <c r="C232" s="29"/>
@@ -15542,7 +16251,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="17"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="14"/>
       <c r="B233" s="15"/>
       <c r="C233" s="29"/>
@@ -15559,7 +16268,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="17"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="14"/>
       <c r="B234" s="15"/>
       <c r="C234" s="29"/>
@@ -15576,7 +16285,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="17"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="14"/>
       <c r="B235" s="15"/>
       <c r="C235" s="29"/>
@@ -15593,7 +16302,7 @@
       <c r="N235" s="18"/>
       <c r="O235" s="17"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="14"/>
       <c r="B236" s="15"/>
       <c r="C236" s="29"/>
@@ -15610,7 +16319,7 @@
       <c r="N236" s="18"/>
       <c r="O236" s="17"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="14"/>
       <c r="B237" s="15"/>
       <c r="C237" s="29"/>
@@ -15627,7 +16336,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="17"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="14"/>
       <c r="B238" s="15"/>
       <c r="C238" s="29"/>
@@ -15644,7 +16353,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="17"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="14"/>
       <c r="B239" s="15"/>
       <c r="C239" s="29"/>
@@ -15661,7 +16370,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="17"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="14"/>
       <c r="B240" s="15"/>
       <c r="C240" s="29"/>
@@ -15678,7 +16387,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="17"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="14"/>
       <c r="B241" s="15"/>
       <c r="C241" s="29"/>
@@ -15695,7 +16404,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="17"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="14"/>
       <c r="B242" s="15"/>
       <c r="C242" s="29"/>
@@ -15712,7 +16421,7 @@
       <c r="N242" s="18"/>
       <c r="O242" s="17"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="14"/>
       <c r="B243" s="15"/>
       <c r="C243" s="29"/>
@@ -15729,7 +16438,7 @@
       <c r="N243" s="18"/>
       <c r="O243" s="17"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="14"/>
       <c r="B244" s="15"/>
       <c r="C244" s="29"/>
@@ -15746,7 +16455,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="17"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="14"/>
       <c r="B245" s="15"/>
       <c r="C245" s="29"/>
@@ -15763,7 +16472,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="17"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="14"/>
       <c r="B246" s="15"/>
       <c r="C246" s="29"/>
@@ -15780,7 +16489,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="17"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="14"/>
       <c r="B247" s="15"/>
       <c r="C247" s="29"/>
@@ -15797,7 +16506,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="17"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="14"/>
       <c r="B248" s="15"/>
       <c r="C248" s="29"/>
@@ -15814,7 +16523,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="17"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="14"/>
       <c r="B249" s="15"/>
       <c r="C249" s="29"/>
@@ -15831,7 +16540,7 @@
       <c r="N249" s="18"/>
       <c r="O249" s="17"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="14"/>
       <c r="B250" s="15"/>
       <c r="C250" s="29"/>
@@ -15848,7 +16557,7 @@
       <c r="N250" s="18"/>
       <c r="O250" s="17"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="14"/>
       <c r="B251" s="15"/>
       <c r="C251" s="29"/>
@@ -15865,7 +16574,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="17"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
       <c r="B252" s="15"/>
       <c r="C252" s="29"/>
@@ -15882,7 +16591,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="17"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="14"/>
       <c r="B253" s="15"/>
       <c r="C253" s="29"/>
@@ -15899,7 +16608,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="17"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="14"/>
       <c r="B254" s="15"/>
       <c r="C254" s="29"/>
@@ -15916,7 +16625,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="17"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="14"/>
       <c r="B255" s="15"/>
       <c r="C255" s="29"/>
@@ -15933,7 +16642,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="17"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="14"/>
       <c r="B256" s="15"/>
       <c r="C256" s="29"/>
@@ -15950,7 +16659,7 @@
       <c r="N256" s="18"/>
       <c r="O256" s="17"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="14"/>
       <c r="B257" s="15"/>
       <c r="C257" s="29"/>
@@ -15967,7 +16676,7 @@
       <c r="N257" s="18"/>
       <c r="O257" s="17"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="14"/>
       <c r="B258" s="15"/>
       <c r="C258" s="29"/>
@@ -15984,7 +16693,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="17"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="14"/>
       <c r="B259" s="15"/>
       <c r="C259" s="29"/>
@@ -16001,7 +16710,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="17"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="14"/>
       <c r="B260" s="15"/>
       <c r="C260" s="29"/>
@@ -16018,7 +16727,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="17"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="14"/>
       <c r="B261" s="15"/>
       <c r="C261" s="29"/>
@@ -16035,7 +16744,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="17"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="14"/>
       <c r="B262" s="15"/>
       <c r="C262" s="29"/>
@@ -16052,7 +16761,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="17"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="14"/>
       <c r="B263" s="15"/>
       <c r="C263" s="29"/>
@@ -16069,7 +16778,7 @@
       <c r="N263" s="18"/>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="14"/>
       <c r="B264" s="15"/>
       <c r="C264" s="29"/>
@@ -16086,7 +16795,7 @@
       <c r="N264" s="18"/>
       <c r="O264" s="17"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="14"/>
       <c r="B265" s="15"/>
       <c r="C265" s="29"/>
@@ -16103,7 +16812,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="17"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="14"/>
       <c r="B266" s="15"/>
       <c r="C266" s="29"/>
@@ -16120,7 +16829,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="17"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="14"/>
       <c r="B267" s="15"/>
       <c r="C267" s="29"/>
@@ -16137,7 +16846,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="17"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="14"/>
       <c r="B268" s="15"/>
       <c r="C268" s="29"/>
@@ -16154,7 +16863,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="17"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="14"/>
       <c r="B269" s="15"/>
       <c r="C269" s="29"/>
@@ -16171,7 +16880,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="17"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="14"/>
       <c r="B270" s="15"/>
       <c r="C270" s="29"/>
@@ -16188,7 +16897,7 @@
       <c r="N270" s="18"/>
       <c r="O270" s="17"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="14"/>
       <c r="B271" s="15"/>
       <c r="C271" s="29"/>
@@ -16205,7 +16914,7 @@
       <c r="N271" s="18"/>
       <c r="O271" s="17"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="14"/>
       <c r="B272" s="15"/>
       <c r="C272" s="29"/>
@@ -16222,7 +16931,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="17"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="14"/>
       <c r="B273" s="15"/>
       <c r="C273" s="29"/>
@@ -16239,7 +16948,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="17"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="14"/>
       <c r="B274" s="15"/>
       <c r="C274" s="29"/>
@@ -16256,7 +16965,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="17"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="14"/>
       <c r="B275" s="15"/>
       <c r="C275" s="29"/>
@@ -16273,7 +16982,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="17"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="14"/>
       <c r="B276" s="15"/>
       <c r="C276" s="29"/>
@@ -16290,7 +16999,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="17"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="14"/>
       <c r="B277" s="15"/>
       <c r="C277" s="29"/>
@@ -16307,7 +17016,7 @@
       <c r="N277" s="18"/>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="14"/>
       <c r="B278" s="15"/>
       <c r="C278" s="29"/>
@@ -16324,7 +17033,7 @@
       <c r="N278" s="18"/>
       <c r="O278" s="17"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="14"/>
       <c r="B279" s="15"/>
       <c r="C279" s="29"/>
@@ -16341,7 +17050,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="17"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="14"/>
       <c r="B280" s="15"/>
       <c r="C280" s="29"/>
@@ -16358,7 +17067,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="17"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="14"/>
       <c r="B281" s="15"/>
       <c r="C281" s="29"/>
@@ -16375,7 +17084,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="17"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="14"/>
       <c r="B282" s="15"/>
       <c r="C282" s="29"/>
@@ -16392,7 +17101,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="17"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="14"/>
       <c r="B283" s="15"/>
       <c r="C283" s="29"/>
@@ -16409,7 +17118,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="17"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="14"/>
       <c r="B284" s="15"/>
       <c r="C284" s="29"/>
@@ -16426,7 +17135,7 @@
       <c r="N284" s="18"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="14"/>
       <c r="B285" s="15"/>
       <c r="C285" s="29"/>
@@ -16443,7 +17152,7 @@
       <c r="N285" s="18"/>
       <c r="O285" s="17"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="14"/>
       <c r="B286" s="15"/>
       <c r="C286" s="29"/>
@@ -16460,7 +17169,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="17"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="14"/>
       <c r="B287" s="15"/>
       <c r="C287" s="29"/>
@@ -16477,7 +17186,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="17"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="14"/>
       <c r="B288" s="15"/>
       <c r="C288" s="29"/>
@@ -16494,7 +17203,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="17"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="14"/>
       <c r="B289" s="15"/>
       <c r="C289" s="29"/>
@@ -16511,7 +17220,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="17"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="14"/>
       <c r="B290" s="15"/>
       <c r="C290" s="29"/>
@@ -16528,7 +17237,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="17"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="14"/>
       <c r="B291" s="15"/>
       <c r="C291" s="29"/>
@@ -16545,7 +17254,7 @@
       <c r="N291" s="18"/>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="14"/>
       <c r="B292" s="15"/>
       <c r="C292" s="29"/>
@@ -16562,7 +17271,7 @@
       <c r="N292" s="18"/>
       <c r="O292" s="17"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="14"/>
       <c r="B293" s="15"/>
       <c r="C293" s="29"/>
@@ -16579,7 +17288,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="17"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="14"/>
       <c r="B294" s="15"/>
       <c r="C294" s="29"/>
@@ -16596,7 +17305,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="17"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="14"/>
       <c r="B295" s="15"/>
       <c r="C295" s="29"/>
@@ -16613,7 +17322,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="17"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="14"/>
       <c r="B296" s="15"/>
       <c r="C296" s="29"/>
@@ -16630,7 +17339,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="17"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="14"/>
       <c r="B297" s="15"/>
       <c r="C297" s="29"/>
@@ -16647,7 +17356,7 @@
       <c r="N297" s="18"/>
       <c r="O297" s="17"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="14"/>
       <c r="B298" s="15"/>
       <c r="C298" s="29"/>
@@ -16664,7 +17373,7 @@
       <c r="N298" s="18"/>
       <c r="O298" s="17"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="14"/>
       <c r="B299" s="15"/>
       <c r="C299" s="29"/>
@@ -16681,7 +17390,7 @@
       <c r="N299" s="18"/>
       <c r="O299" s="17"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="14"/>
       <c r="B300" s="15"/>
       <c r="C300" s="29"/>
@@ -16698,7 +17407,7 @@
       <c r="N300" s="18"/>
       <c r="O300" s="17"/>
     </row>
-    <row r="301" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="14"/>
       <c r="B301" s="15"/>
       <c r="C301" s="29"/>
@@ -16715,7 +17424,7 @@
       <c r="N301" s="18"/>
       <c r="O301" s="17"/>
     </row>
-    <row r="302" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="14"/>
       <c r="B302" s="15"/>
       <c r="C302" s="29"/>
@@ -16732,7 +17441,7 @@
       <c r="N302" s="18"/>
       <c r="O302" s="17"/>
     </row>
-    <row r="303" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="14"/>
       <c r="B303" s="15"/>
       <c r="C303" s="29"/>
@@ -16749,7 +17458,7 @@
       <c r="N303" s="18"/>
       <c r="O303" s="17"/>
     </row>
-    <row r="304" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="14"/>
       <c r="B304" s="15"/>
       <c r="C304" s="29"/>
@@ -16766,7 +17475,7 @@
       <c r="N304" s="18"/>
       <c r="O304" s="17"/>
     </row>
-    <row r="305" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="14"/>
       <c r="B305" s="15"/>
       <c r="C305" s="29"/>
@@ -16783,7 +17492,7 @@
       <c r="N305" s="18"/>
       <c r="O305" s="17"/>
     </row>
-    <row r="306" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="14"/>
       <c r="B306" s="15"/>
       <c r="C306" s="29"/>
@@ -16800,7 +17509,7 @@
       <c r="N306" s="18"/>
       <c r="O306" s="17"/>
     </row>
-    <row r="307" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="14"/>
       <c r="B307" s="15"/>
       <c r="C307" s="29"/>
@@ -16817,7 +17526,7 @@
       <c r="N307" s="18"/>
       <c r="O307" s="17"/>
     </row>
-    <row r="308" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="14"/>
       <c r="B308" s="15"/>
       <c r="C308" s="29"/>
@@ -16834,7 +17543,7 @@
       <c r="N308" s="18"/>
       <c r="O308" s="17"/>
     </row>
-    <row r="309" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="14"/>
       <c r="B309" s="15"/>
       <c r="C309" s="29"/>
@@ -16851,7 +17560,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="17"/>
     </row>
-    <row r="310" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="14"/>
       <c r="B310" s="15"/>
       <c r="C310" s="29"/>
@@ -16868,7 +17577,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="17"/>
     </row>
-    <row r="311" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="14"/>
       <c r="B311" s="15"/>
       <c r="C311" s="29"/>
@@ -16886,7 +17595,7 @@
       <c r="O311" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -16894,39 +17603,39 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N112:N311">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N112,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N112,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N112,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N111 N312:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D11 D12 D13 D16 D17 D18 D19 D20 D21 D31 D32 D33 D34 D35 D5:D7 D8:D9 D14:D15 D22:D26 D27:D30 D36:D38 D39:D43 D44:D45 D46:D47 D48:D51 D52:D311" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D10 D11 D12 D13 D16 D17 D18 D19 D20 D21 D31 D32 D33 D34 D35 D5:D7 D8:D9 D14:D15 D22:D26 D27:D30 D36:D38 D39:D43 D44:D45 D46:D47 D48:D51 D52:D311" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C16 C19 C31 C32 C33 C34 C35 C5:C12 C14:C15 C17:C18 C20:C30 C36:C38 C39:C311" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C13 C16 C19 C31 C32 C33 C34 C35 C5:C12 C14:C15 C17:C18 C20:C30 C36:C38 C39:C311" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F45" r:id="rId1" location="q=Google" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E45" r:id="rId2" location="q=Google" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink location="q=Google" r:id="rId1" ref="F45" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink location="q=Google" r:id="rId2" ref="E45" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{9C3E3DA7-16B2-9D46-9349-31B97BB54AF2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="28340" windowWidth="34120" xWindow="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-28340" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="28340" windowWidth="34120" xWindow="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-28340"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -27,7 +27,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="770">
   <si>
     <t>target</t>
   </si>
@@ -2388,13 +2388,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2590,8 +2596,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2763,8 +2870,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -3128,12 +3388,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3298,52 +3884,100 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3753,7 +4387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4445,7 +5079,7 @@
         <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="L10" t="s">
         <v>208</v>
@@ -4489,7 +5123,7 @@
         <v>218</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>769</v>
       </c>
       <c r="L11" t="s">
         <v>220</v>
@@ -4527,7 +5161,7 @@
         <v>229</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L12" t="s">
         <v>231</v>
@@ -4565,7 +5199,7 @@
         <v>239</v>
       </c>
       <c r="I13" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L13" t="s">
         <v>241</v>
@@ -4600,7 +5234,7 @@
         <v>249</v>
       </c>
       <c r="I14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L14" t="s">
         <v>251</v>
@@ -4635,7 +5269,7 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L15" t="s">
         <v>260</v>
@@ -4668,6 +5302,9 @@
       </c>
       <c r="H16" t="s">
         <v>268</v>
+      </c>
+      <c r="I16" t="s">
+        <v>250</v>
       </c>
       <c r="L16" t="s">
         <v>269</v>
@@ -5787,25 +6424,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P320"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="80" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="80">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A35" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="41.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="4" width="10.83203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="5" width="30.83203125" collapsed="false"/>
-    <col min="5" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="false"/>
-    <col min="16" max="16384" style="10" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="30.83203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -11852,25 +12489,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P311"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="80" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="80">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="41.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="4" width="10.83203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="5" width="30.83203125" collapsed="false"/>
-    <col min="5" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="false"/>
-    <col min="16" max="16384" style="10" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="30.83203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -29,7 +29,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -47,14 +47,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="779">
   <si>
     <t>target</t>
   </si>
@@ -2394,13 +2395,40 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2697,8 +2725,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3023,8 +3253,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3714,12 +4250,664 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3932,52 +5120,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="36" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="48" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="52" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4385,7 +5669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4473,21 +5757,24 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4523,7 +5810,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>777</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -4568,21 +5855,24 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4654,21 +5944,24 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
+        <v>773</v>
+      </c>
+      <c r="AA3" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4737,21 +6030,24 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
+        <v>774</v>
+      </c>
+      <c r="AA4" t="s">
         <v>108</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>109</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>110</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>111</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4811,21 +6107,24 @@
         <v>129</v>
       </c>
       <c r="Z5" t="s">
+        <v>775</v>
+      </c>
+      <c r="AA5" t="s">
         <v>130</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>131</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>766</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>133</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>134</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4855,7 +6154,7 @@
         <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>778</v>
       </c>
       <c r="L6" t="s">
         <v>144</v>
@@ -4882,21 +6181,24 @@
         <v>151</v>
       </c>
       <c r="Z6" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA6" t="s">
         <v>152</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>153</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>155</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>156</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4917,7 +6219,7 @@
         <v>161</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
         <v>36</v>
@@ -4943,22 +6245,22 @@
       <c r="X7" t="s">
         <v>168</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>169</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>170</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>154</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>172</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>173</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4978,6 +6280,9 @@
       <c r="I8" t="s">
         <v>178</v>
       </c>
+      <c r="K8" t="s">
+        <v>162</v>
+      </c>
       <c r="L8" t="s">
         <v>179</v>
       </c>
@@ -4999,22 +6304,22 @@
       <c r="X8" t="s">
         <v>185</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>186</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>189</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>190</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5055,16 +6360,16 @@
       <c r="X9" t="s">
         <v>202</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>203</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>204</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5099,16 +6404,16 @@
       <c r="U10" t="s">
         <v>213</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>214</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>767</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>215</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5140,13 +6445,13 @@
       <c r="S11" t="s">
         <v>224</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>225</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>226</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5178,13 +6483,13 @@
       <c r="S12" t="s">
         <v>235</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>236</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>237</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5213,13 +6518,13 @@
       <c r="S13" t="s">
         <v>758</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>245</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>246</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5248,13 +6553,13 @@
       <c r="S14" t="s">
         <v>244</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>255</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>256</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5283,13 +6588,13 @@
       <c r="S15" t="s">
         <v>254</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>759</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>265</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5318,13 +6623,13 @@
       <c r="S16" t="s">
         <v>263</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>264</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>274</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5347,13 +6652,13 @@
       <c r="S17" t="s">
         <v>272</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>273</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>281</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5373,10 +6678,10 @@
       <c r="N18" t="s">
         <v>286</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>280</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5393,10 +6698,10 @@
       <c r="L19" t="s">
         <v>291</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>287</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5413,10 +6718,10 @@
       <c r="L20" t="s">
         <v>296</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>292</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5433,10 +6738,10 @@
       <c r="L21" t="s">
         <v>301</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>297</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5453,10 +6758,10 @@
       <c r="L22" t="s">
         <v>306</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>302</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5473,10 +6778,10 @@
       <c r="L23" t="s">
         <v>311</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>307</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5493,10 +6798,10 @@
       <c r="L24" t="s">
         <v>316</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>312</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5513,16 +6818,16 @@
       <c r="L25" t="s">
         <v>321</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>317</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>770</v>
       </c>
       <c r="F26" t="s">
         <v>324</v>
@@ -5533,16 +6838,16 @@
       <c r="L26" t="s">
         <v>326</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>322</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>329</v>
@@ -5553,16 +6858,16 @@
       <c r="L27" t="s">
         <v>331</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>327</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>334</v>
@@ -5573,13 +6878,13 @@
       <c r="L28" t="s">
         <v>336</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
         <v>338</v>
@@ -5590,13 +6895,13 @@
       <c r="L29" t="s">
         <v>340</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
         <v>342</v>
@@ -5607,13 +6912,13 @@
       <c r="L30" t="s">
         <v>344</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>346</v>
@@ -5621,18 +6926,21 @@
       <c r="H31" t="s">
         <v>347</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" t="s">
         <v>349</v>
       </c>
       <c r="H32" t="s">
         <v>350</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5643,7 +6951,7 @@
       <c r="H33" t="s">
         <v>353</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5654,7 +6962,7 @@
       <c r="H34" t="s">
         <v>356</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5665,7 +6973,7 @@
       <c r="H35" t="s">
         <v>359</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5676,7 +6984,7 @@
       <c r="H36" t="s">
         <v>362</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>360</v>
       </c>
     </row>
@@ -5687,7 +6995,7 @@
       <c r="H37" t="s">
         <v>365</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5698,7 +7006,7 @@
       <c r="H38" t="s">
         <v>368</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5709,7 +7017,7 @@
       <c r="H39" t="s">
         <v>371</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5717,7 +7025,7 @@
       <c r="H40" t="s">
         <v>373</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5725,7 +7033,7 @@
       <c r="H41" t="s">
         <v>375</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5733,7 +7041,7 @@
       <c r="H42" t="s">
         <v>377</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5741,7 +7049,7 @@
       <c r="H43" t="s">
         <v>379</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5749,7 +7057,7 @@
       <c r="H44" t="s">
         <v>381</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5757,7 +7065,7 @@
       <c r="H45" t="s">
         <v>383</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5765,7 +7073,7 @@
       <c r="H46" t="s">
         <v>385</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5773,7 +7081,7 @@
       <c r="H47" t="s">
         <v>387</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5781,7 +7089,7 @@
       <c r="H48" t="s">
         <v>389</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5789,7 +7097,7 @@
       <c r="H49" t="s">
         <v>391</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5797,7 +7105,7 @@
       <c r="H50" t="s">
         <v>393</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5805,7 +7113,7 @@
       <c r="H51" t="s">
         <v>395</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5813,7 +7121,7 @@
       <c r="H52" t="s">
         <v>397</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5821,7 +7129,7 @@
       <c r="H53" t="s">
         <v>399</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5829,7 +7137,7 @@
       <c r="H54" t="s">
         <v>401</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5837,7 +7145,7 @@
       <c r="H55" t="s">
         <v>403</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5845,7 +7153,7 @@
       <c r="H56" t="s">
         <v>405</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5853,7 +7161,7 @@
       <c r="H57" t="s">
         <v>407</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5861,7 +7169,7 @@
       <c r="H58" t="s">
         <v>409</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5869,7 +7177,7 @@
       <c r="H59" t="s">
         <v>411</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5877,7 +7185,7 @@
       <c r="H60" t="s">
         <v>413</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5885,7 +7193,7 @@
       <c r="H61" t="s">
         <v>415</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5893,7 +7201,7 @@
       <c r="H62" t="s">
         <v>417</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5901,7 +7209,7 @@
       <c r="H63" t="s">
         <v>419</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5909,7 +7217,7 @@
       <c r="H64" t="s">
         <v>421</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5917,7 +7225,7 @@
       <c r="H65" t="s">
         <v>423</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5925,7 +7233,7 @@
       <c r="H66" t="s">
         <v>425</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5933,7 +7241,7 @@
       <c r="H67" t="s">
         <v>427</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5941,7 +7249,7 @@
       <c r="H68" t="s">
         <v>429</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5949,7 +7257,7 @@
       <c r="H69" t="s">
         <v>431</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5957,7 +7265,7 @@
       <c r="H70" t="s">
         <v>433</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5965,7 +7273,7 @@
       <c r="H71" t="s">
         <v>435</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5973,7 +7281,7 @@
       <c r="H72" t="s">
         <v>437</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5981,7 +7289,7 @@
       <c r="H73" t="s">
         <v>439</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5989,7 +7297,7 @@
       <c r="H74" t="s">
         <v>441</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5997,7 +7305,7 @@
       <c r="H75" t="s">
         <v>443</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6005,7 +7313,7 @@
       <c r="H76" t="s">
         <v>445</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6013,7 +7321,7 @@
       <c r="H77" t="s">
         <v>447</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>446</v>
       </c>
     </row>
@@ -6021,7 +7329,7 @@
       <c r="H78" t="s">
         <v>449</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6029,7 +7337,7 @@
       <c r="H79" t="s">
         <v>451</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6037,7 +7345,7 @@
       <c r="H80" t="s">
         <v>453</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6045,7 +7353,7 @@
       <c r="H81" t="s">
         <v>455</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>454</v>
       </c>
     </row>
@@ -6053,7 +7361,7 @@
       <c r="H82" t="s">
         <v>457</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>456</v>
       </c>
     </row>
@@ -6061,7 +7369,7 @@
       <c r="H83" t="s">
         <v>459</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6069,7 +7377,7 @@
       <c r="H84" t="s">
         <v>461</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6077,7 +7385,7 @@
       <c r="H85" t="s">
         <v>463</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6085,7 +7393,7 @@
       <c r="H86" t="s">
         <v>465</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6093,7 +7401,7 @@
       <c r="H87" t="s">
         <v>467</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6101,7 +7409,7 @@
       <c r="H88" t="s">
         <v>469</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6109,7 +7417,7 @@
       <c r="H89" t="s">
         <v>471</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6117,7 +7425,7 @@
       <c r="H90" t="s">
         <v>473</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>760</v>
       </c>
     </row>
@@ -6125,7 +7433,7 @@
       <c r="H91" t="s">
         <v>475</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>472</v>
       </c>
     </row>
@@ -6133,7 +7441,7 @@
       <c r="H92" t="s">
         <v>477</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6141,7 +7449,7 @@
       <c r="H93" t="s">
         <v>479</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6149,7 +7457,7 @@
       <c r="H94" t="s">
         <v>481</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6157,7 +7465,7 @@
       <c r="H95" t="s">
         <v>483</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6165,7 +7473,7 @@
       <c r="H96" t="s">
         <v>485</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6173,7 +7481,7 @@
       <c r="H97" t="s">
         <v>487</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6181,237 +7489,237 @@
       <c r="H98" t="s">
         <v>489</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>529</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -33,7 +33,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -41,7 +41,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -49,13 +49,14 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="789">
   <si>
     <t>target</t>
   </si>
@@ -2422,13 +2423,43 @@
   <si>
     <t>ocr(image,saveVar)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="94" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2927,8 +2958,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3559,8 +3691,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4902,12 +5187,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5216,52 +5827,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="68" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5669,7 +6328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5757,7 +6416,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -5837,7 +6496,7 @@
         <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>781</v>
       </c>
       <c r="U2" t="s">
         <v>50</v>
@@ -5855,7 +6514,7 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="AA2" t="s">
         <v>55</v>
@@ -5929,7 +6588,7 @@
         <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>782</v>
       </c>
       <c r="U3" t="s">
         <v>78</v>
@@ -5944,7 +6603,7 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="AA3" t="s">
         <v>82</v>
@@ -6015,7 +6674,7 @@
         <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
         <v>104</v>
@@ -6030,7 +6689,7 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="AA4" t="s">
         <v>108</v>
@@ -6095,7 +6754,7 @@
         <v>125</v>
       </c>
       <c r="T5" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
         <v>127</v>
@@ -6105,9 +6764,6 @@
       </c>
       <c r="X5" t="s">
         <v>129</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>775</v>
       </c>
       <c r="AA5" t="s">
         <v>130</v>
@@ -6172,16 +6828,13 @@
         <v>148</v>
       </c>
       <c r="T6" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="U6" t="s">
         <v>150</v>
       </c>
       <c r="X6" t="s">
         <v>151</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>776</v>
       </c>
       <c r="AA6" t="s">
         <v>152</v>
@@ -6237,7 +6890,7 @@
         <v>165</v>
       </c>
       <c r="T7" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="U7" t="s">
         <v>167</v>
@@ -6298,6 +6951,9 @@
       <c r="S8" t="s">
         <v>183</v>
       </c>
+      <c r="T8" t="s">
+        <v>149</v>
+      </c>
       <c r="U8" t="s">
         <v>184</v>
       </c>
@@ -6354,6 +7010,9 @@
       <c r="S9" t="s">
         <v>200</v>
       </c>
+      <c r="T9" t="s">
+        <v>166</v>
+      </c>
       <c r="U9" t="s">
         <v>201</v>
       </c>
@@ -6475,7 +7134,7 @@
         <v>232</v>
       </c>
       <c r="O12" t="s">
-        <v>233</v>
+        <v>780</v>
       </c>
       <c r="R12" t="s">
         <v>234</v>
@@ -6512,6 +7171,9 @@
       <c r="N13" t="s">
         <v>242</v>
       </c>
+      <c r="O13" t="s">
+        <v>233</v>
+      </c>
       <c r="R13" t="s">
         <v>243</v>
       </c>
@@ -6589,7 +7251,7 @@
         <v>254</v>
       </c>
       <c r="AA15" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="AD15" t="s">
         <v>265</v>
@@ -6624,7 +7286,7 @@
         <v>263</v>
       </c>
       <c r="AA16" t="s">
-        <v>264</v>
+        <v>759</v>
       </c>
       <c r="AD16" t="s">
         <v>274</v>
@@ -6653,7 +7315,7 @@
         <v>272</v>
       </c>
       <c r="AA17" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AD17" t="s">
         <v>281</v>
@@ -6679,7 +7341,7 @@
         <v>286</v>
       </c>
       <c r="AA18" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AF18" t="s">
         <v>288</v>
@@ -6699,7 +7361,7 @@
         <v>291</v>
       </c>
       <c r="AA19" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF19" t="s">
         <v>293</v>
@@ -6719,7 +7381,7 @@
         <v>296</v>
       </c>
       <c r="AA20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AF20" t="s">
         <v>298</v>
@@ -6739,7 +7401,7 @@
         <v>301</v>
       </c>
       <c r="AA21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AF21" t="s">
         <v>303</v>
@@ -6759,7 +7421,7 @@
         <v>306</v>
       </c>
       <c r="AA22" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AF22" t="s">
         <v>308</v>
@@ -6779,7 +7441,7 @@
         <v>311</v>
       </c>
       <c r="AA23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF23" t="s">
         <v>313</v>
@@ -6799,7 +7461,7 @@
         <v>316</v>
       </c>
       <c r="AA24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AF24" t="s">
         <v>318</v>
@@ -6819,7 +7481,7 @@
         <v>321</v>
       </c>
       <c r="AA25" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AF25" t="s">
         <v>323</v>
@@ -6827,7 +7489,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="F26" t="s">
         <v>324</v>
@@ -6839,7 +7501,7 @@
         <v>326</v>
       </c>
       <c r="AA26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AF26" t="s">
         <v>328</v>
@@ -6859,7 +7521,7 @@
         <v>331</v>
       </c>
       <c r="AA27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AF27" t="s">
         <v>333</v>
@@ -6879,7 +7541,7 @@
         <v>336</v>
       </c>
       <c r="AA28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29">
@@ -6896,7 +7558,7 @@
         <v>340</v>
       </c>
       <c r="AA29" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30">
@@ -6913,7 +7575,7 @@
         <v>344</v>
       </c>
       <c r="AA30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31">
@@ -6927,7 +7589,7 @@
         <v>347</v>
       </c>
       <c r="AA31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32">
@@ -6941,7 +7603,7 @@
         <v>350</v>
       </c>
       <c r="AA32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33">
@@ -6952,7 +7614,7 @@
         <v>353</v>
       </c>
       <c r="AA33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
@@ -6963,7 +7625,7 @@
         <v>356</v>
       </c>
       <c r="AA34" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35">
@@ -6974,7 +7636,7 @@
         <v>359</v>
       </c>
       <c r="AA35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36">
@@ -6985,7 +7647,7 @@
         <v>362</v>
       </c>
       <c r="AA36" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37">
@@ -6996,7 +7658,7 @@
         <v>365</v>
       </c>
       <c r="AA37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
@@ -7007,7 +7669,7 @@
         <v>368</v>
       </c>
       <c r="AA38" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
@@ -7018,7 +7680,7 @@
         <v>371</v>
       </c>
       <c r="AA39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
@@ -7026,7 +7688,7 @@
         <v>373</v>
       </c>
       <c r="AA40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
@@ -7034,7 +7696,7 @@
         <v>375</v>
       </c>
       <c r="AA41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
@@ -7042,7 +7704,7 @@
         <v>377</v>
       </c>
       <c r="AA42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -7050,7 +7712,7 @@
         <v>379</v>
       </c>
       <c r="AA43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
@@ -7058,7 +7720,7 @@
         <v>381</v>
       </c>
       <c r="AA44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
@@ -7066,7 +7728,7 @@
         <v>383</v>
       </c>
       <c r="AA45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
@@ -7074,7 +7736,7 @@
         <v>385</v>
       </c>
       <c r="AA46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47">
@@ -7082,7 +7744,7 @@
         <v>387</v>
       </c>
       <c r="AA47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
@@ -7090,7 +7752,7 @@
         <v>389</v>
       </c>
       <c r="AA48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
@@ -7098,7 +7760,7 @@
         <v>391</v>
       </c>
       <c r="AA49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50">
@@ -7106,7 +7768,7 @@
         <v>393</v>
       </c>
       <c r="AA50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
@@ -7114,7 +7776,7 @@
         <v>395</v>
       </c>
       <c r="AA51" t="s">
-        <v>394</v>
+        <v>787</v>
       </c>
     </row>
     <row r="52">
@@ -7122,7 +7784,7 @@
         <v>397</v>
       </c>
       <c r="AA52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53">
@@ -7130,7 +7792,7 @@
         <v>399</v>
       </c>
       <c r="AA53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
@@ -7138,7 +7800,7 @@
         <v>401</v>
       </c>
       <c r="AA54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55">
@@ -7146,7 +7808,7 @@
         <v>403</v>
       </c>
       <c r="AA55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56">
@@ -7154,7 +7816,7 @@
         <v>405</v>
       </c>
       <c r="AA56" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57">
@@ -7162,7 +7824,7 @@
         <v>407</v>
       </c>
       <c r="AA57" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58">
@@ -7170,7 +7832,7 @@
         <v>409</v>
       </c>
       <c r="AA58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59">
@@ -7178,7 +7840,7 @@
         <v>411</v>
       </c>
       <c r="AA59" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60">
@@ -7186,7 +7848,7 @@
         <v>413</v>
       </c>
       <c r="AA60" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61">
@@ -7194,7 +7856,7 @@
         <v>415</v>
       </c>
       <c r="AA61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62">
@@ -7202,7 +7864,7 @@
         <v>417</v>
       </c>
       <c r="AA62" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
@@ -7210,7 +7872,7 @@
         <v>419</v>
       </c>
       <c r="AA63" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64">
@@ -7218,7 +7880,7 @@
         <v>421</v>
       </c>
       <c r="AA64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65">
@@ -7226,7 +7888,7 @@
         <v>423</v>
       </c>
       <c r="AA65" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66">
@@ -7234,7 +7896,7 @@
         <v>425</v>
       </c>
       <c r="AA66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67">
@@ -7242,7 +7904,7 @@
         <v>427</v>
       </c>
       <c r="AA67" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68">
@@ -7250,7 +7912,7 @@
         <v>429</v>
       </c>
       <c r="AA68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69">
@@ -7258,7 +7920,7 @@
         <v>431</v>
       </c>
       <c r="AA69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70">
@@ -7266,7 +7928,7 @@
         <v>433</v>
       </c>
       <c r="AA70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71">
@@ -7274,7 +7936,7 @@
         <v>435</v>
       </c>
       <c r="AA71" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72">
@@ -7282,7 +7944,7 @@
         <v>437</v>
       </c>
       <c r="AA72" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73">
@@ -7290,7 +7952,7 @@
         <v>439</v>
       </c>
       <c r="AA73" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74">
@@ -7298,7 +7960,7 @@
         <v>441</v>
       </c>
       <c r="AA74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75">
@@ -7306,7 +7968,7 @@
         <v>443</v>
       </c>
       <c r="AA75" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76">
@@ -7314,7 +7976,7 @@
         <v>445</v>
       </c>
       <c r="AA76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77">
@@ -7322,7 +7984,7 @@
         <v>447</v>
       </c>
       <c r="AA77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78">
@@ -7330,7 +7992,7 @@
         <v>449</v>
       </c>
       <c r="AA78" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79">
@@ -7338,7 +8000,7 @@
         <v>451</v>
       </c>
       <c r="AA79" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
@@ -7346,7 +8008,7 @@
         <v>453</v>
       </c>
       <c r="AA80" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81">
@@ -7354,7 +8016,7 @@
         <v>455</v>
       </c>
       <c r="AA81" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
@@ -7362,7 +8024,7 @@
         <v>457</v>
       </c>
       <c r="AA82" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83">
@@ -7370,7 +8032,7 @@
         <v>459</v>
       </c>
       <c r="AA83" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">
@@ -7378,7 +8040,7 @@
         <v>461</v>
       </c>
       <c r="AA84" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85">
@@ -7386,7 +8048,7 @@
         <v>463</v>
       </c>
       <c r="AA85" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86">
@@ -7394,7 +8056,7 @@
         <v>465</v>
       </c>
       <c r="AA86" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87">
@@ -7402,7 +8064,7 @@
         <v>467</v>
       </c>
       <c r="AA87" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88">
@@ -7410,7 +8072,7 @@
         <v>469</v>
       </c>
       <c r="AA88" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89">
@@ -7418,7 +8080,7 @@
         <v>471</v>
       </c>
       <c r="AA89" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90">
@@ -7426,7 +8088,7 @@
         <v>473</v>
       </c>
       <c r="AA90" t="s">
-        <v>760</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91">
@@ -7434,7 +8096,7 @@
         <v>475</v>
       </c>
       <c r="AA91" t="s">
-        <v>472</v>
+        <v>760</v>
       </c>
     </row>
     <row r="92">
@@ -7442,7 +8104,7 @@
         <v>477</v>
       </c>
       <c r="AA92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93">
@@ -7450,7 +8112,7 @@
         <v>479</v>
       </c>
       <c r="AA93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94">
@@ -7458,7 +8120,7 @@
         <v>481</v>
       </c>
       <c r="AA94" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95">
@@ -7466,7 +8128,7 @@
         <v>483</v>
       </c>
       <c r="AA95" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96">
@@ -7474,7 +8136,7 @@
         <v>485</v>
       </c>
       <c r="AA96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97">
@@ -7482,7 +8144,7 @@
         <v>487</v>
       </c>
       <c r="AA97" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98">
@@ -7490,236 +8152,241 @@
         <v>489</v>
       </c>
       <c r="AA98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>761</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>499</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>762</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>508</v>
+        <v>762</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>763</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>510</v>
+        <v>763</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>764</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>516</v>
+        <v>764</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>520</v>
+        <v>788</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>765</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>527</v>
+        <v>765</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>529</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -22,7 +22,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -40,22 +40,22 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="839">
   <si>
     <t>target</t>
   </si>
@@ -2453,13 +2453,163 @@
   <si>
     <t>uncheckAll(locator,waitMs)</t>
   </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="94" x14ac:knownFonts="1">
+  <fonts count="128" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3059,8 +3209,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="187">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3842,6 +4206,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -5518,7 +6154,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="162">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5875,52 +6511,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="84" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="96" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="100" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6328,7 +7066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6419,21 +7157,24 @@
         <v>779</v>
       </c>
       <c r="AA1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6517,21 +7258,24 @@
         <v>783</v>
       </c>
       <c r="AA2" t="s">
+        <v>796</v>
+      </c>
+      <c r="AB2" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6606,21 +7350,24 @@
         <v>784</v>
       </c>
       <c r="AA3" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB3" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6692,21 +7439,24 @@
         <v>785</v>
       </c>
       <c r="AA4" t="s">
+        <v>798</v>
+      </c>
+      <c r="AB4" t="s">
         <v>108</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>110</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>111</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6766,21 +7516,24 @@
         <v>129</v>
       </c>
       <c r="AA5" t="s">
+        <v>799</v>
+      </c>
+      <c r="AB5" t="s">
         <v>130</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>131</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>766</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>134</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6837,21 +7590,24 @@
         <v>151</v>
       </c>
       <c r="AA6" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB6" t="s">
         <v>152</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>153</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>155</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>156</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6899,21 +7655,24 @@
         <v>168</v>
       </c>
       <c r="AA7" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB7" t="s">
         <v>169</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>170</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>154</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>172</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>173</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6961,21 +7720,24 @@
         <v>185</v>
       </c>
       <c r="AA8" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>171</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>189</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>190</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7020,15 +7782,18 @@
         <v>202</v>
       </c>
       <c r="AA9" t="s">
+        <v>803</v>
+      </c>
+      <c r="AB9" t="s">
         <v>203</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>204</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7064,15 +7829,18 @@
         <v>213</v>
       </c>
       <c r="AA10" t="s">
+        <v>804</v>
+      </c>
+      <c r="AB10" t="s">
         <v>214</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>767</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>215</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7102,15 +7870,18 @@
         <v>223</v>
       </c>
       <c r="S11" t="s">
-        <v>224</v>
+        <v>795</v>
       </c>
       <c r="AA11" t="s">
+        <v>805</v>
+      </c>
+      <c r="AB11" t="s">
         <v>225</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7140,15 +7911,18 @@
         <v>234</v>
       </c>
       <c r="S12" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AA12" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB12" t="s">
         <v>236</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>237</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7178,15 +7952,18 @@
         <v>243</v>
       </c>
       <c r="S13" t="s">
-        <v>758</v>
+        <v>235</v>
       </c>
       <c r="AA13" t="s">
+        <v>807</v>
+      </c>
+      <c r="AB13" t="s">
         <v>245</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>246</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7213,15 +7990,18 @@
         <v>253</v>
       </c>
       <c r="S14" t="s">
-        <v>244</v>
+        <v>758</v>
       </c>
       <c r="AA14" t="s">
+        <v>808</v>
+      </c>
+      <c r="AB14" t="s">
         <v>255</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>256</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7248,15 +8028,18 @@
         <v>262</v>
       </c>
       <c r="S15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AA15" t="s">
+        <v>809</v>
+      </c>
+      <c r="AB15" t="s">
         <v>786</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>265</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7283,15 +8066,18 @@
         <v>271</v>
       </c>
       <c r="S16" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AA16" t="s">
+        <v>810</v>
+      </c>
+      <c r="AB16" t="s">
         <v>759</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>274</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7312,15 +8098,18 @@
         <v>279</v>
       </c>
       <c r="S17" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AA17" t="s">
+        <v>811</v>
+      </c>
+      <c r="AB17" t="s">
         <v>264</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>281</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7340,10 +8129,16 @@
       <c r="N18" t="s">
         <v>286</v>
       </c>
+      <c r="S18" t="s">
+        <v>272</v>
+      </c>
       <c r="AA18" t="s">
+        <v>812</v>
+      </c>
+      <c r="AB18" t="s">
         <v>273</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>288</v>
       </c>
     </row>
@@ -7352,7 +8147,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>289</v>
+        <v>789</v>
       </c>
       <c r="H19" t="s">
         <v>290</v>
@@ -7361,9 +8156,12 @@
         <v>291</v>
       </c>
       <c r="AA19" t="s">
+        <v>813</v>
+      </c>
+      <c r="AB19" t="s">
         <v>280</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7372,7 +8170,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>294</v>
+        <v>790</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -7381,9 +8179,12 @@
         <v>296</v>
       </c>
       <c r="AA20" t="s">
+        <v>814</v>
+      </c>
+      <c r="AB20" t="s">
         <v>287</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7392,7 +8193,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>299</v>
+        <v>791</v>
       </c>
       <c r="H21" t="s">
         <v>300</v>
@@ -7401,9 +8202,12 @@
         <v>301</v>
       </c>
       <c r="AA21" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB21" t="s">
         <v>292</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7412,7 +8216,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H22" t="s">
         <v>305</v>
@@ -7421,9 +8225,12 @@
         <v>306</v>
       </c>
       <c r="AA22" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB22" t="s">
         <v>297</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7432,7 +8239,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="H23" t="s">
         <v>310</v>
@@ -7441,9 +8248,12 @@
         <v>311</v>
       </c>
       <c r="AA23" t="s">
+        <v>816</v>
+      </c>
+      <c r="AB23" t="s">
         <v>302</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7452,7 +8262,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H24" t="s">
         <v>315</v>
@@ -7461,9 +8271,12 @@
         <v>316</v>
       </c>
       <c r="AA24" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB24" t="s">
         <v>307</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7472,7 +8285,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>792</v>
       </c>
       <c r="H25" t="s">
         <v>320</v>
@@ -7481,9 +8294,12 @@
         <v>321</v>
       </c>
       <c r="AA25" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB25" t="s">
         <v>312</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7492,234 +8308,294 @@
         <v>779</v>
       </c>
       <c r="F26" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="H26" t="s">
         <v>325</v>
       </c>
       <c r="L26" t="s">
-        <v>326</v>
+        <v>794</v>
       </c>
       <c r="AA26" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB26" t="s">
         <v>317</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>770</v>
       </c>
       <c r="F27" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="H27" t="s">
         <v>330</v>
       </c>
       <c r="L27" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AA27" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB27" t="s">
         <v>322</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="H28" t="s">
         <v>335</v>
       </c>
       <c r="L28" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AA28" t="s">
+        <v>820</v>
+      </c>
+      <c r="AB28" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="H29" t="s">
         <v>339</v>
       </c>
       <c r="L29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AA29" t="s">
+        <v>821</v>
+      </c>
+      <c r="AB29" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="H30" t="s">
         <v>343</v>
       </c>
       <c r="L30" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AA30" t="s">
+        <v>822</v>
+      </c>
+      <c r="AB30" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="H31" t="s">
         <v>347</v>
       </c>
+      <c r="L31" t="s">
+        <v>344</v>
+      </c>
       <c r="AA31" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB31" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="H32" t="s">
         <v>350</v>
       </c>
       <c r="AA32" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB32" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H33" t="s">
         <v>353</v>
       </c>
       <c r="AA33" t="s">
+        <v>825</v>
+      </c>
+      <c r="AB33" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="H34" t="s">
         <v>356</v>
       </c>
       <c r="AA34" t="s">
+        <v>826</v>
+      </c>
+      <c r="AB34" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H35" t="s">
         <v>359</v>
       </c>
       <c r="AA35" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB35" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H36" t="s">
         <v>362</v>
       </c>
       <c r="AA36" t="s">
+        <v>828</v>
+      </c>
+      <c r="AB36" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H37" t="s">
         <v>365</v>
       </c>
       <c r="AA37" t="s">
+        <v>829</v>
+      </c>
+      <c r="AB37" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="H38" t="s">
         <v>368</v>
       </c>
       <c r="AA38" t="s">
+        <v>830</v>
+      </c>
+      <c r="AB38" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="H39" t="s">
         <v>371</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>361</v>
+      </c>
       <c r="H40" t="s">
         <v>373</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>364</v>
+      </c>
       <c r="H41" t="s">
         <v>375</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>367</v>
+      </c>
       <c r="H42" t="s">
         <v>377</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>370</v>
+      </c>
       <c r="H43" t="s">
         <v>379</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>793</v>
+      </c>
       <c r="H44" t="s">
         <v>381</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7727,7 +8603,7 @@
       <c r="H45" t="s">
         <v>383</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7735,7 +8611,7 @@
       <c r="H46" t="s">
         <v>385</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7743,7 +8619,7 @@
       <c r="H47" t="s">
         <v>387</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7751,7 +8627,7 @@
       <c r="H48" t="s">
         <v>389</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7759,7 +8635,7 @@
       <c r="H49" t="s">
         <v>391</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7767,7 +8643,7 @@
       <c r="H50" t="s">
         <v>393</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7775,7 +8651,7 @@
       <c r="H51" t="s">
         <v>395</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>787</v>
       </c>
     </row>
@@ -7783,7 +8659,7 @@
       <c r="H52" t="s">
         <v>397</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7791,7 +8667,7 @@
       <c r="H53" t="s">
         <v>399</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7799,7 +8675,7 @@
       <c r="H54" t="s">
         <v>401</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>398</v>
       </c>
     </row>
@@ -7807,7 +8683,7 @@
       <c r="H55" t="s">
         <v>403</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7815,7 +8691,7 @@
       <c r="H56" t="s">
         <v>405</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7823,7 +8699,7 @@
       <c r="H57" t="s">
         <v>407</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7831,7 +8707,7 @@
       <c r="H58" t="s">
         <v>409</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7839,7 +8715,7 @@
       <c r="H59" t="s">
         <v>411</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7847,7 +8723,7 @@
       <c r="H60" t="s">
         <v>413</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7855,7 +8731,7 @@
       <c r="H61" t="s">
         <v>415</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7863,7 +8739,7 @@
       <c r="H62" t="s">
         <v>417</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7871,7 +8747,7 @@
       <c r="H63" t="s">
         <v>419</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7879,7 +8755,7 @@
       <c r="H64" t="s">
         <v>421</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7887,7 +8763,7 @@
       <c r="H65" t="s">
         <v>423</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7895,7 +8771,7 @@
       <c r="H66" t="s">
         <v>425</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7903,7 +8779,7 @@
       <c r="H67" t="s">
         <v>427</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7911,7 +8787,7 @@
       <c r="H68" t="s">
         <v>429</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7919,7 +8795,7 @@
       <c r="H69" t="s">
         <v>431</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7927,7 +8803,7 @@
       <c r="H70" t="s">
         <v>433</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7935,7 +8811,7 @@
       <c r="H71" t="s">
         <v>435</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7943,7 +8819,7 @@
       <c r="H72" t="s">
         <v>437</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7951,7 +8827,7 @@
       <c r="H73" t="s">
         <v>439</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7959,7 +8835,7 @@
       <c r="H74" t="s">
         <v>441</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7967,7 +8843,7 @@
       <c r="H75" t="s">
         <v>443</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7975,7 +8851,7 @@
       <c r="H76" t="s">
         <v>445</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7983,7 +8859,7 @@
       <c r="H77" t="s">
         <v>447</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7991,7 +8867,7 @@
       <c r="H78" t="s">
         <v>449</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7999,395 +8875,425 @@
       <c r="H79" t="s">
         <v>451</v>
       </c>
-      <c r="AA79" t="s">
-        <v>448</v>
+      <c r="AB79" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>453</v>
       </c>
-      <c r="AA80" t="s">
-        <v>450</v>
+      <c r="AB80" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>455</v>
       </c>
-      <c r="AA81" t="s">
-        <v>452</v>
+      <c r="AB81" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>457</v>
       </c>
-      <c r="AA82" t="s">
-        <v>454</v>
+      <c r="AB82" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>459</v>
       </c>
-      <c r="AA83" t="s">
-        <v>456</v>
+      <c r="AB83" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>461</v>
       </c>
-      <c r="AA84" t="s">
-        <v>458</v>
+      <c r="AB84" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>463</v>
       </c>
-      <c r="AA85" t="s">
-        <v>460</v>
+      <c r="AB85" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>465</v>
       </c>
-      <c r="AA86" t="s">
-        <v>462</v>
+      <c r="AB86" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>467</v>
       </c>
-      <c r="AA87" t="s">
-        <v>464</v>
+      <c r="AB87" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>469</v>
       </c>
-      <c r="AA88" t="s">
-        <v>466</v>
+      <c r="AB88" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>471</v>
       </c>
-      <c r="AA89" t="s">
-        <v>468</v>
+      <c r="AB89" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>473</v>
       </c>
-      <c r="AA90" t="s">
-        <v>470</v>
+      <c r="AB90" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>475</v>
       </c>
-      <c r="AA91" t="s">
-        <v>760</v>
+      <c r="AB91" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>477</v>
       </c>
-      <c r="AA92" t="s">
-        <v>472</v>
+      <c r="AB92" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>479</v>
       </c>
-      <c r="AA93" t="s">
-        <v>474</v>
+      <c r="AB93" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>481</v>
       </c>
-      <c r="AA94" t="s">
-        <v>476</v>
+      <c r="AB94" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>483</v>
       </c>
-      <c r="AA95" t="s">
-        <v>478</v>
+      <c r="AB95" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>485</v>
       </c>
-      <c r="AA96" t="s">
-        <v>480</v>
+      <c r="AB96" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>487</v>
       </c>
-      <c r="AA97" t="s">
-        <v>482</v>
+      <c r="AB97" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>489</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>501</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -22,13 +22,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,14 +47,14 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="841">
   <si>
     <t>target</t>
   </si>
@@ -2603,13 +2603,19 @@
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="128" x14ac:knownFonts="1">
+  <fonts count="145" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3423,8 +3429,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="187">
+  <fills count="211">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4206,6 +4319,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -6154,7 +6403,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="179">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6610,55 +6859,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="117" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7066,7 +7366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7157,24 +7457,21 @@
         <v>779</v>
       </c>
       <c r="AA1" t="s">
-        <v>770</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7207,7 +7504,7 @@
         <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>840</v>
       </c>
       <c r="K2" t="s">
         <v>777</v>
@@ -7258,24 +7555,21 @@
         <v>783</v>
       </c>
       <c r="AA2" t="s">
-        <v>796</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7305,7 +7599,7 @@
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>69</v>
@@ -7350,24 +7644,21 @@
         <v>784</v>
       </c>
       <c r="AA3" t="s">
-        <v>797</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7394,7 +7685,7 @@
         <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
         <v>95</v>
@@ -7439,24 +7730,21 @@
         <v>785</v>
       </c>
       <c r="AA4" t="s">
-        <v>798</v>
+        <v>108</v>
       </c>
       <c r="AB4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD4" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="AE4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="AF4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7483,7 +7771,7 @@
         <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
         <v>120</v>
@@ -7516,24 +7804,21 @@
         <v>129</v>
       </c>
       <c r="AA5" t="s">
-        <v>799</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC5" t="s">
-        <v>131</v>
+        <v>766</v>
       </c>
       <c r="AD5" t="s">
-        <v>766</v>
+        <v>133</v>
       </c>
       <c r="AE5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7560,7 +7845,7 @@
         <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
         <v>778</v>
@@ -7590,24 +7875,21 @@
         <v>151</v>
       </c>
       <c r="AA6" t="s">
-        <v>800</v>
+        <v>152</v>
       </c>
       <c r="AB6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC6" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AD6" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="AE6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7627,6 +7909,9 @@
       <c r="I7" t="s">
         <v>161</v>
       </c>
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
       <c r="K7" t="s">
         <v>143</v>
       </c>
@@ -7655,24 +7940,21 @@
         <v>168</v>
       </c>
       <c r="AA7" t="s">
-        <v>801</v>
+        <v>169</v>
       </c>
       <c r="AB7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AD7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="AE7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7720,24 +8002,21 @@
         <v>185</v>
       </c>
       <c r="AA8" t="s">
-        <v>802</v>
+        <v>186</v>
       </c>
       <c r="AB8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC8" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AD8" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AE8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7782,18 +8061,15 @@
         <v>202</v>
       </c>
       <c r="AA9" t="s">
-        <v>803</v>
-      </c>
-      <c r="AB9" t="s">
         <v>203</v>
       </c>
+      <c r="AC9" t="s">
+        <v>188</v>
+      </c>
       <c r="AD9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE9" t="s">
         <v>204</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7829,18 +8105,15 @@
         <v>213</v>
       </c>
       <c r="AA10" t="s">
-        <v>804</v>
-      </c>
-      <c r="AB10" t="s">
         <v>214</v>
       </c>
+      <c r="AC10" t="s">
+        <v>767</v>
+      </c>
       <c r="AD10" t="s">
-        <v>767</v>
-      </c>
-      <c r="AE10" t="s">
         <v>215</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7849,7 +8122,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>839</v>
       </c>
       <c r="H11" t="s">
         <v>218</v>
@@ -7873,15 +8146,12 @@
         <v>795</v>
       </c>
       <c r="AA11" t="s">
-        <v>805</v>
-      </c>
-      <c r="AB11" t="s">
         <v>225</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>226</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7890,7 +8160,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H12" t="s">
         <v>229</v>
@@ -7914,15 +8184,12 @@
         <v>224</v>
       </c>
       <c r="AA12" t="s">
-        <v>806</v>
-      </c>
-      <c r="AB12" t="s">
         <v>236</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>237</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7931,7 +8198,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="H13" t="s">
         <v>239</v>
@@ -7955,15 +8222,12 @@
         <v>235</v>
       </c>
       <c r="AA13" t="s">
-        <v>807</v>
-      </c>
-      <c r="AB13" t="s">
         <v>245</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>246</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7972,7 +8236,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
         <v>249</v>
@@ -7993,15 +8257,12 @@
         <v>758</v>
       </c>
       <c r="AA14" t="s">
-        <v>808</v>
-      </c>
-      <c r="AB14" t="s">
         <v>255</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>256</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8010,7 +8271,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H15" t="s">
         <v>259</v>
@@ -8031,15 +8292,12 @@
         <v>244</v>
       </c>
       <c r="AA15" t="s">
-        <v>809</v>
-      </c>
-      <c r="AB15" t="s">
         <v>786</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>265</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8048,7 +8306,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H16" t="s">
         <v>268</v>
@@ -8069,15 +8327,12 @@
         <v>254</v>
       </c>
       <c r="AA16" t="s">
-        <v>810</v>
-      </c>
-      <c r="AB16" t="s">
         <v>759</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>274</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8086,7 +8341,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H17" t="s">
         <v>277</v>
@@ -8101,15 +8356,12 @@
         <v>263</v>
       </c>
       <c r="AA17" t="s">
-        <v>811</v>
-      </c>
-      <c r="AB17" t="s">
         <v>264</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>281</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>282</v>
       </c>
     </row>
@@ -8118,7 +8370,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H18" t="s">
         <v>284</v>
@@ -8133,12 +8385,9 @@
         <v>272</v>
       </c>
       <c r="AA18" t="s">
-        <v>812</v>
-      </c>
-      <c r="AB18" t="s">
         <v>273</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8147,7 +8396,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>789</v>
+        <v>283</v>
       </c>
       <c r="H19" t="s">
         <v>290</v>
@@ -8156,12 +8405,9 @@
         <v>291</v>
       </c>
       <c r="AA19" t="s">
-        <v>813</v>
-      </c>
-      <c r="AB19" t="s">
         <v>280</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8170,7 +8416,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -8179,12 +8425,9 @@
         <v>296</v>
       </c>
       <c r="AA20" t="s">
-        <v>814</v>
-      </c>
-      <c r="AB20" t="s">
         <v>287</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8193,7 +8436,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H21" t="s">
         <v>300</v>
@@ -8202,12 +8445,9 @@
         <v>301</v>
       </c>
       <c r="AA21" t="s">
-        <v>815</v>
-      </c>
-      <c r="AB21" t="s">
         <v>292</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8216,7 +8456,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>289</v>
+        <v>791</v>
       </c>
       <c r="H22" t="s">
         <v>305</v>
@@ -8225,12 +8465,9 @@
         <v>306</v>
       </c>
       <c r="AA22" t="s">
-        <v>772</v>
-      </c>
-      <c r="AB22" t="s">
         <v>297</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8239,7 +8476,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H23" t="s">
         <v>310</v>
@@ -8248,12 +8485,9 @@
         <v>311</v>
       </c>
       <c r="AA23" t="s">
-        <v>816</v>
-      </c>
-      <c r="AB23" t="s">
         <v>302</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8262,7 +8496,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H24" t="s">
         <v>315</v>
@@ -8271,12 +8505,9 @@
         <v>316</v>
       </c>
       <c r="AA24" t="s">
-        <v>817</v>
-      </c>
-      <c r="AB24" t="s">
         <v>307</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8285,7 +8516,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>792</v>
+        <v>299</v>
       </c>
       <c r="H25" t="s">
         <v>320</v>
@@ -8294,12 +8525,9 @@
         <v>321</v>
       </c>
       <c r="AA25" t="s">
-        <v>818</v>
-      </c>
-      <c r="AB25" t="s">
         <v>312</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>323</v>
       </c>
     </row>
@@ -8308,7 +8536,7 @@
         <v>779</v>
       </c>
       <c r="F26" t="s">
-        <v>304</v>
+        <v>792</v>
       </c>
       <c r="H26" t="s">
         <v>325</v>
@@ -8317,21 +8545,18 @@
         <v>794</v>
       </c>
       <c r="AA26" t="s">
-        <v>773</v>
-      </c>
-      <c r="AB26" t="s">
         <v>317</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>770</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H27" t="s">
         <v>330</v>
@@ -8340,21 +8565,18 @@
         <v>326</v>
       </c>
       <c r="AA27" t="s">
-        <v>819</v>
-      </c>
-      <c r="AB27" t="s">
         <v>322</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s">
         <v>335</v>
@@ -8363,18 +8585,15 @@
         <v>331</v>
       </c>
       <c r="AA28" t="s">
-        <v>820</v>
-      </c>
-      <c r="AB28" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H29" t="s">
         <v>339</v>
@@ -8383,18 +8602,15 @@
         <v>336</v>
       </c>
       <c r="AA29" t="s">
-        <v>821</v>
-      </c>
-      <c r="AB29" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H30" t="s">
         <v>343</v>
@@ -8403,18 +8619,15 @@
         <v>340</v>
       </c>
       <c r="AA30" t="s">
-        <v>822</v>
-      </c>
-      <c r="AB30" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H31" t="s">
         <v>347</v>
@@ -8423,187 +8636,163 @@
         <v>344</v>
       </c>
       <c r="AA31" t="s">
-        <v>823</v>
-      </c>
-      <c r="AB31" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H32" t="s">
         <v>350</v>
       </c>
       <c r="AA32" t="s">
-        <v>824</v>
-      </c>
-      <c r="AB32" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H33" t="s">
         <v>353</v>
       </c>
       <c r="AA33" t="s">
-        <v>825</v>
-      </c>
-      <c r="AB33" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H34" t="s">
         <v>356</v>
       </c>
       <c r="AA34" t="s">
-        <v>826</v>
-      </c>
-      <c r="AB34" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H35" t="s">
         <v>359</v>
       </c>
       <c r="AA35" t="s">
-        <v>827</v>
-      </c>
-      <c r="AB35" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H36" t="s">
         <v>362</v>
       </c>
       <c r="AA36" t="s">
-        <v>828</v>
-      </c>
-      <c r="AB36" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H37" t="s">
         <v>365</v>
       </c>
       <c r="AA37" t="s">
-        <v>829</v>
-      </c>
-      <c r="AB37" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H38" t="s">
         <v>368</v>
       </c>
       <c r="AA38" t="s">
-        <v>830</v>
-      </c>
-      <c r="AB38" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H39" t="s">
         <v>371</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H40" t="s">
         <v>373</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H41" t="s">
         <v>375</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H42" t="s">
         <v>377</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H43" t="s">
         <v>379</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>793</v>
+        <v>370</v>
       </c>
       <c r="H44" t="s">
         <v>381</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>793</v>
+      </c>
       <c r="H45" t="s">
         <v>383</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8611,7 +8800,7 @@
       <c r="H46" t="s">
         <v>385</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8619,7 +8808,7 @@
       <c r="H47" t="s">
         <v>387</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8627,7 +8816,7 @@
       <c r="H48" t="s">
         <v>389</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8635,7 +8824,7 @@
       <c r="H49" t="s">
         <v>391</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8643,7 +8832,7 @@
       <c r="H50" t="s">
         <v>393</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8651,7 +8840,7 @@
       <c r="H51" t="s">
         <v>395</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>787</v>
       </c>
     </row>
@@ -8659,7 +8848,7 @@
       <c r="H52" t="s">
         <v>397</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8667,7 +8856,7 @@
       <c r="H53" t="s">
         <v>399</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8675,7 +8864,7 @@
       <c r="H54" t="s">
         <v>401</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8683,7 +8872,7 @@
       <c r="H55" t="s">
         <v>403</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8691,7 +8880,7 @@
       <c r="H56" t="s">
         <v>405</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8699,7 +8888,7 @@
       <c r="H57" t="s">
         <v>407</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8707,7 +8896,7 @@
       <c r="H58" t="s">
         <v>409</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8715,7 +8904,7 @@
       <c r="H59" t="s">
         <v>411</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8723,7 +8912,7 @@
       <c r="H60" t="s">
         <v>413</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8731,7 +8920,7 @@
       <c r="H61" t="s">
         <v>415</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8739,7 +8928,7 @@
       <c r="H62" t="s">
         <v>417</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>414</v>
       </c>
     </row>
@@ -8747,7 +8936,7 @@
       <c r="H63" t="s">
         <v>419</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>416</v>
       </c>
     </row>
@@ -8755,7 +8944,7 @@
       <c r="H64" t="s">
         <v>421</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8763,7 +8952,7 @@
       <c r="H65" t="s">
         <v>423</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8771,7 +8960,7 @@
       <c r="H66" t="s">
         <v>425</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>422</v>
       </c>
     </row>
@@ -8779,7 +8968,7 @@
       <c r="H67" t="s">
         <v>427</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>424</v>
       </c>
     </row>
@@ -8787,7 +8976,7 @@
       <c r="H68" t="s">
         <v>429</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8795,7 +8984,7 @@
       <c r="H69" t="s">
         <v>431</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>428</v>
       </c>
     </row>
@@ -8803,7 +8992,7 @@
       <c r="H70" t="s">
         <v>433</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8811,7 +9000,7 @@
       <c r="H71" t="s">
         <v>435</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8819,7 +9008,7 @@
       <c r="H72" t="s">
         <v>437</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>434</v>
       </c>
     </row>
@@ -8827,7 +9016,7 @@
       <c r="H73" t="s">
         <v>439</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8835,7 +9024,7 @@
       <c r="H74" t="s">
         <v>441</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8843,7 +9032,7 @@
       <c r="H75" t="s">
         <v>443</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8851,7 +9040,7 @@
       <c r="H76" t="s">
         <v>445</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>442</v>
       </c>
     </row>
@@ -8859,7 +9048,7 @@
       <c r="H77" t="s">
         <v>447</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8867,7 +9056,7 @@
       <c r="H78" t="s">
         <v>449</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8875,7 +9064,7 @@
       <c r="H79" t="s">
         <v>451</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>831</v>
       </c>
     </row>
@@ -8883,7 +9072,7 @@
       <c r="H80" t="s">
         <v>453</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8891,7 +9080,7 @@
       <c r="H81" t="s">
         <v>455</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8899,7 +9088,7 @@
       <c r="H82" t="s">
         <v>457</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8907,7 +9096,7 @@
       <c r="H83" t="s">
         <v>459</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8915,7 +9104,7 @@
       <c r="H84" t="s">
         <v>461</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8923,7 +9112,7 @@
       <c r="H85" t="s">
         <v>463</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8931,7 +9120,7 @@
       <c r="H86" t="s">
         <v>465</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8939,7 +9128,7 @@
       <c r="H87" t="s">
         <v>467</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8947,7 +9136,7 @@
       <c r="H88" t="s">
         <v>469</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8955,7 +9144,7 @@
       <c r="H89" t="s">
         <v>471</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>466</v>
       </c>
     </row>
@@ -8963,7 +9152,7 @@
       <c r="H90" t="s">
         <v>473</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>468</v>
       </c>
     </row>
@@ -8971,7 +9160,7 @@
       <c r="H91" t="s">
         <v>475</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>470</v>
       </c>
     </row>
@@ -8979,7 +9168,7 @@
       <c r="H92" t="s">
         <v>477</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>760</v>
       </c>
     </row>
@@ -8987,7 +9176,7 @@
       <c r="H93" t="s">
         <v>479</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8995,7 +9184,7 @@
       <c r="H94" t="s">
         <v>481</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>474</v>
       </c>
     </row>
@@ -9003,7 +9192,7 @@
       <c r="H95" t="s">
         <v>483</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>476</v>
       </c>
     </row>
@@ -9011,7 +9200,7 @@
       <c r="H96" t="s">
         <v>485</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>478</v>
       </c>
     </row>
@@ -9019,7 +9208,7 @@
       <c r="H97" t="s">
         <v>487</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>480</v>
       </c>
     </row>
@@ -9027,272 +9216,272 @@
       <c r="H98" t="s">
         <v>489</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>838</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7057" uniqueCount="841">
   <si>
     <t>target</t>
   </si>
@@ -2615,7 +2615,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="145" x14ac:knownFonts="1">
+  <fonts count="179" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3536,8 +3536,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="211">
+  <fills count="259">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4319,6 +4533,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -6403,7 +6889,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6910,55 +7396,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="147" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -30,12 +30,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7057" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="845">
   <si>
     <t>target</t>
   </si>
@@ -2609,13 +2609,25 @@
   <si>
     <t>openFile(filePath)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="179" x14ac:knownFonts="1">
+  <fonts count="213" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3750,8 +3762,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="259">
+  <fills count="307">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4533,6 +4759,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -6889,7 +7387,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="247">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -7498,55 +7996,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="165" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="168" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="182" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="185" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8113,7 +8713,7 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>842</v>
       </c>
       <c r="R2" t="s">
         <v>47</v>
@@ -8207,6 +8807,9 @@
       <c r="P3" t="s">
         <v>74</v>
       </c>
+      <c r="Q3" t="s">
+        <v>843</v>
+      </c>
       <c r="R3" t="s">
         <v>75</v>
       </c>
@@ -8293,6 +8896,9 @@
       <c r="P4" t="s">
         <v>100</v>
       </c>
+      <c r="Q4" t="s">
+        <v>844</v>
+      </c>
       <c r="R4" t="s">
         <v>101</v>
       </c>
@@ -8504,7 +9110,7 @@
         <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>841</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -8566,7 +9172,7 @@
         <v>162</v>
       </c>
       <c r="L8" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>180</v>
@@ -8625,7 +9231,7 @@
         <v>195</v>
       </c>
       <c r="L9" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N9" t="s">
         <v>197</v>
@@ -8675,7 +9281,7 @@
         <v>768</v>
       </c>
       <c r="L10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="N10" t="s">
         <v>209</v>
@@ -8719,7 +9325,7 @@
         <v>769</v>
       </c>
       <c r="L11" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="N11" t="s">
         <v>221</v>
@@ -8757,7 +9363,7 @@
         <v>207</v>
       </c>
       <c r="L12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="N12" t="s">
         <v>232</v>
@@ -8795,7 +9401,7 @@
         <v>219</v>
       </c>
       <c r="L13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="N13" t="s">
         <v>242</v>
@@ -8833,7 +9439,7 @@
         <v>230</v>
       </c>
       <c r="L14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N14" t="s">
         <v>252</v>
@@ -8868,7 +9474,7 @@
         <v>240</v>
       </c>
       <c r="L15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="N15" t="s">
         <v>261</v>
@@ -8903,7 +9509,7 @@
         <v>250</v>
       </c>
       <c r="L16" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N16" t="s">
         <v>270</v>
@@ -8935,7 +9541,7 @@
         <v>277</v>
       </c>
       <c r="L17" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N17" t="s">
         <v>279</v>
@@ -8964,7 +9570,7 @@
         <v>284</v>
       </c>
       <c r="L18" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N18" t="s">
         <v>286</v>
@@ -8990,7 +9596,7 @@
         <v>290</v>
       </c>
       <c r="L19" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AA19" t="s">
         <v>280</v>
@@ -9010,7 +9616,7 @@
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AA20" t="s">
         <v>287</v>
@@ -9030,7 +9636,7 @@
         <v>300</v>
       </c>
       <c r="L21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AA21" t="s">
         <v>292</v>
@@ -9050,7 +9656,7 @@
         <v>305</v>
       </c>
       <c r="L22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AA22" t="s">
         <v>297</v>
@@ -9070,7 +9676,7 @@
         <v>310</v>
       </c>
       <c r="L23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AA23" t="s">
         <v>302</v>
@@ -9090,7 +9696,7 @@
         <v>315</v>
       </c>
       <c r="L24" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AA24" t="s">
         <v>307</v>
@@ -9110,7 +9716,7 @@
         <v>320</v>
       </c>
       <c r="L25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AA25" t="s">
         <v>312</v>
@@ -9130,7 +9736,7 @@
         <v>325</v>
       </c>
       <c r="L26" t="s">
-        <v>794</v>
+        <v>321</v>
       </c>
       <c r="AA26" t="s">
         <v>317</v>
@@ -9150,7 +9756,7 @@
         <v>330</v>
       </c>
       <c r="L27" t="s">
-        <v>326</v>
+        <v>794</v>
       </c>
       <c r="AA27" t="s">
         <v>322</v>
@@ -9170,7 +9776,7 @@
         <v>335</v>
       </c>
       <c r="L28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AA28" t="s">
         <v>327</v>
@@ -9187,7 +9793,7 @@
         <v>339</v>
       </c>
       <c r="L29" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AA29" t="s">
         <v>332</v>
@@ -9204,7 +9810,7 @@
         <v>343</v>
       </c>
       <c r="L30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AA30" t="s">
         <v>337</v>
@@ -9221,7 +9827,7 @@
         <v>347</v>
       </c>
       <c r="L31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AA31" t="s">
         <v>341</v>
@@ -9236,6 +9842,9 @@
       </c>
       <c r="H32" t="s">
         <v>350</v>
+      </c>
+      <c r="L32" t="s">
+        <v>344</v>
       </c>
       <c r="AA32" t="s">
         <v>345</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -35,12 +35,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8876" uniqueCount="851">
   <si>
     <t>target</t>
   </si>
@@ -2621,13 +2621,31 @@
   <si>
     <t>send(profile,var)</t>
   </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="213" x14ac:knownFonts="1">
+  <fonts count="230" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3976,8 +3994,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="307">
+  <fills count="331">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4759,6 +4884,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -7387,7 +7648,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="264">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -8098,55 +8359,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="198" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="199" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="202" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8713,7 +9025,7 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="R2" t="s">
         <v>47</v>
@@ -8808,7 +9120,7 @@
         <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="R3" t="s">
         <v>75</v>
@@ -8897,7 +9209,7 @@
         <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>844</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
         <v>101</v>
@@ -8979,6 +9291,9 @@
       <c r="O5" t="s">
         <v>123</v>
       </c>
+      <c r="Q5" t="s">
+        <v>847</v>
+      </c>
       <c r="R5" t="s">
         <v>124</v>
       </c>
@@ -9413,7 +9728,7 @@
         <v>243</v>
       </c>
       <c r="S13" t="s">
-        <v>235</v>
+        <v>848</v>
       </c>
       <c r="AA13" t="s">
         <v>245</v>
@@ -9448,7 +9763,7 @@
         <v>253</v>
       </c>
       <c r="S14" t="s">
-        <v>758</v>
+        <v>235</v>
       </c>
       <c r="AA14" t="s">
         <v>255</v>
@@ -9483,7 +9798,7 @@
         <v>262</v>
       </c>
       <c r="S15" t="s">
-        <v>244</v>
+        <v>758</v>
       </c>
       <c r="AA15" t="s">
         <v>786</v>
@@ -9518,7 +9833,7 @@
         <v>271</v>
       </c>
       <c r="S16" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AA16" t="s">
         <v>759</v>
@@ -9547,7 +9862,7 @@
         <v>279</v>
       </c>
       <c r="S17" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AA17" t="s">
         <v>264</v>
@@ -9576,7 +9891,7 @@
         <v>286</v>
       </c>
       <c r="S18" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AA18" t="s">
         <v>273</v>
@@ -9598,6 +9913,9 @@
       <c r="L19" t="s">
         <v>285</v>
       </c>
+      <c r="S19" t="s">
+        <v>849</v>
+      </c>
       <c r="AA19" t="s">
         <v>280</v>
       </c>
@@ -9618,6 +9936,9 @@
       <c r="L20" t="s">
         <v>291</v>
       </c>
+      <c r="S20" t="s">
+        <v>272</v>
+      </c>
       <c r="AA20" t="s">
         <v>287</v>
       </c>
@@ -9637,6 +9958,9 @@
       </c>
       <c r="L21" t="s">
         <v>296</v>
+      </c>
+      <c r="S21" t="s">
+        <v>850</v>
       </c>
       <c r="AA21" t="s">
         <v>292</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_function.xlsx
@@ -22,12 +22,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -47,16 +47,18 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8876" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9519" uniqueCount="888">
   <si>
     <t>target</t>
   </si>
@@ -2639,13 +2641,124 @@
   <si>
     <t>split(pdf,saveTo)</t>
   </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="230" x14ac:knownFonts="1">
+  <fonts count="247" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4101,8 +4214,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="331">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4884,6 +5104,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -7648,7 +8004,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="281">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -8459,6 +8815,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="229" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8866,7 +9273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8966,12 +9373,18 @@
         <v>27</v>
       </c>
       <c r="AD1" t="s">
+        <v>851</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>852</v>
+      </c>
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9064,12 +9477,18 @@
         <v>57</v>
       </c>
       <c r="AD2" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>880</v>
+      </c>
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9156,12 +9575,18 @@
         <v>84</v>
       </c>
       <c r="AD3" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>881</v>
+      </c>
+      <c r="AF3" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9245,12 +9670,18 @@
         <v>110</v>
       </c>
       <c r="AD4" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>882</v>
+      </c>
+      <c r="AF4" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>111</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9321,13 +9752,16 @@
       <c r="AC5" t="s">
         <v>766</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>883</v>
+      </c>
+      <c r="AF5" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>134</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9392,13 +9826,16 @@
       <c r="AC6" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>884</v>
+      </c>
+      <c r="AF6" t="s">
         <v>155</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>156</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -9457,13 +9894,16 @@
       <c r="AC7" t="s">
         <v>154</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF7" t="s">
         <v>172</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>173</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -9481,7 +9921,7 @@
         <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>873</v>
       </c>
       <c r="K8" t="s">
         <v>162</v>
@@ -9519,13 +9959,16 @@
       <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>886</v>
+      </c>
+      <c r="AF8" t="s">
         <v>189</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>190</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9543,7 +9986,7 @@
         <v>194</v>
       </c>
       <c r="I9" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="L9" t="s">
         <v>179</v>
@@ -9575,10 +10018,13 @@
       <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>887</v>
+      </c>
+      <c r="AF9" t="s">
         <v>204</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9593,7 +10039,7 @@
         <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>768</v>
+        <v>195</v>
       </c>
       <c r="L10" t="s">
         <v>196</v>
@@ -9619,10 +10065,10 @@
       <c r="AC10" t="s">
         <v>767</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>215</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -9637,7 +10083,7 @@
         <v>218</v>
       </c>
       <c r="I11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L11" t="s">
         <v>208</v>
@@ -9657,10 +10103,10 @@
       <c r="AA11" t="s">
         <v>225</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>226</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9675,7 +10121,7 @@
         <v>229</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>769</v>
       </c>
       <c r="L12" t="s">
         <v>220</v>
@@ -9695,10 +10141,10 @@
       <c r="AA12" t="s">
         <v>236</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>237</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -9713,7 +10159,7 @@
         <v>239</v>
       </c>
       <c r="I13" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L13" t="s">
         <v>231</v>
@@ -9733,10 +10179,10 @@
       <c r="AA13" t="s">
         <v>245</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>246</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>247</v>
       </c>
     </row>
@@ -9751,7 +10197,7 @@
         <v>249</v>
       </c>
       <c r="I14" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L14" t="s">
         <v>241</v>
@@ -9768,10 +10214,10 @@
       <c r="AA14" t="s">
         <v>255</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>256</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>257</v>
       </c>
     </row>
@@ -9786,7 +10232,7 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L15" t="s">
         <v>251</v>
@@ -9803,10 +10249,10 @@
       <c r="AA15" t="s">
         <v>786</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>265</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9821,7 +10267,7 @@
         <v>268</v>
       </c>
       <c r="I16" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L16" t="s">
         <v>260</v>
@@ -9838,10 +10284,10 @@
       <c r="AA16" t="s">
         <v>759</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>274</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>275</v>
       </c>
     </row>
@@ -9855,6 +10301,9 @@
       <c r="H17" t="s">
         <v>277</v>
       </c>
+      <c r="I17" t="s">
+        <v>250</v>
+      </c>
       <c r="L17" t="s">
         <v>269</v>
       </c>
@@ -9867,10 +10316,10 @@
       <c r="AA17" t="s">
         <v>264</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>281</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>282</v>
       </c>
     </row>
@@ -9884,6 +10333,9 @@
       <c r="H18" t="s">
         <v>284</v>
       </c>
+      <c r="I18" t="s">
+        <v>874</v>
+      </c>
       <c r="L18" t="s">
         <v>278</v>
       </c>
@@ -9896,7 +10348,7 @@
       <c r="AA18" t="s">
         <v>273</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9905,7 +10357,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>853</v>
       </c>
       <c r="H19" t="s">
         <v>290</v>
@@ -9919,7 +10371,7 @@
       <c r="AA19" t="s">
         <v>280</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9928,7 +10380,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>789</v>
+        <v>854</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -9942,7 +10394,7 @@
       <c r="AA20" t="s">
         <v>287</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9951,7 +10403,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>790</v>
+        <v>283</v>
       </c>
       <c r="H21" t="s">
         <v>300</v>
@@ -9965,7 +10417,7 @@
       <c r="AA21" t="s">
         <v>292</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>303</v>
       </c>
     </row>
@@ -9974,7 +10426,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H22" t="s">
         <v>305</v>
@@ -9985,7 +10437,7 @@
       <c r="AA22" t="s">
         <v>297</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9994,7 +10446,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>790</v>
       </c>
       <c r="H23" t="s">
         <v>310</v>
@@ -10005,7 +10457,7 @@
       <c r="AA23" t="s">
         <v>302</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>313</v>
       </c>
     </row>
@@ -10014,7 +10466,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>294</v>
+        <v>791</v>
       </c>
       <c r="H24" t="s">
         <v>315</v>
@@ -10025,7 +10477,7 @@
       <c r="AA24" t="s">
         <v>307</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>318</v>
       </c>
     </row>
@@ -10034,7 +10486,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H25" t="s">
         <v>320</v>
@@ -10045,7 +10497,7 @@
       <c r="AA25" t="s">
         <v>312</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>323</v>
       </c>
     </row>
@@ -10054,18 +10506,18 @@
         <v>779</v>
       </c>
       <c r="F26" t="s">
-        <v>792</v>
+        <v>294</v>
       </c>
       <c r="H26" t="s">
-        <v>325</v>
+        <v>855</v>
       </c>
       <c r="L26" t="s">
         <v>321</v>
       </c>
       <c r="AA26" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>875</v>
+      </c>
+      <c r="AH26" t="s">
         <v>328</v>
       </c>
     </row>
@@ -10074,18 +10526,18 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H27" t="s">
-        <v>330</v>
+        <v>856</v>
       </c>
       <c r="L27" t="s">
         <v>794</v>
       </c>
       <c r="AA27" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH27" t="s">
         <v>333</v>
       </c>
     </row>
@@ -10094,16 +10546,16 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>309</v>
+        <v>792</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L28" t="s">
         <v>326</v>
       </c>
       <c r="AA28" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29">
@@ -10111,898 +10563,959 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s">
         <v>331</v>
       </c>
       <c r="AA29" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>851</v>
       </c>
       <c r="F30" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H30" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L30" t="s">
         <v>336</v>
       </c>
       <c r="AA30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>852</v>
       </c>
       <c r="F31" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L31" t="s">
         <v>340</v>
       </c>
       <c r="AA31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H32" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L32" t="s">
         <v>344</v>
       </c>
       <c r="AA32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA33" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA34" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>338</v>
-      </c>
-      <c r="H34" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H35" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AA35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H36" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AA36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H37" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AA37" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H38" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AA38" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H39" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AA39" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H40" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AA40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H41" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AA41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H42" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AA42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H43" t="s">
-        <v>379</v>
+        <v>857</v>
       </c>
       <c r="AA43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H44" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AA44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="H45" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H46" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>793</v>
       </c>
-      <c r="H45" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA47" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AA48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AA49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AA51" t="s">
-        <v>787</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AA52" t="s">
-        <v>394</v>
+        <v>787</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AA53" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>401</v>
+        <v>858</v>
       </c>
       <c r="AA54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>403</v>
+        <v>859</v>
       </c>
       <c r="AA55" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>405</v>
+        <v>860</v>
       </c>
       <c r="AA56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>407</v>
+        <v>861</v>
       </c>
       <c r="AA57" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AA58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AA59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="AA60" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AA61" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AA62" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AA63" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AA64" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AA65" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="AA66" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>427</v>
+        <v>862</v>
       </c>
       <c r="AA67" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>429</v>
+        <v>863</v>
       </c>
       <c r="AA68" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>431</v>
+        <v>864</v>
       </c>
       <c r="AA69" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AA70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>435</v>
+        <v>865</v>
       </c>
       <c r="AA71" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>437</v>
+        <v>866</v>
       </c>
       <c r="AA72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="AA73" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AA74" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AA75" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="AA76" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="AA77" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="AA78" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AA79" t="s">
-        <v>831</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AA80" t="s">
-        <v>448</v>
+        <v>831</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AA81" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="AA82" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="AA83" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>461</v>
+        <v>867</v>
       </c>
       <c r="AA84" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>463</v>
+        <v>868</v>
       </c>
       <c r="AA85" t="s">
-        <v>458</v>
+        <v>876</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AA86" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AA87" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AA88" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="AA89" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>473</v>
+        <v>869</v>
       </c>
       <c r="AA90" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>475</v>
+        <v>870</v>
       </c>
       <c r="AA91" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="AA92" t="s">
-        <v>760</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="AA93" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="AA94" t="s">
-        <v>474</v>
+        <v>760</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="AA95" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AA96" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="AA97" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>871</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>872</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>489</v>
       </c>
-      <c r="AA98" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>500</v>
+        <v>761</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>832</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>833</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>502</v>
+        <v>832</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>503</v>
+        <v>833</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>762</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>509</v>
+        <v>762</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>763</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>511</v>
+        <v>763</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>764</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>517</v>
+        <v>764</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>788</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>521</v>
+        <v>788</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>834</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>765</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>527</v>
+        <v>834</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>528</v>
+        <v>765</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>835</v>
+        <v>528</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>836</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>838</v>
       </c>
     </row>
